--- a/dev/ind comp2_OR_enviar.xlsx
+++ b/dev/ind comp2_OR_enviar.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9707" tabRatio="918" firstSheet="9" activeTab="32"/>
+    <workbookView windowWidth="22176" windowHeight="9720" tabRatio="918" firstSheet="9" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="indicadores anuario" sheetId="1" r:id="rId1"/>
@@ -1808,7 +1808,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2784" uniqueCount="1516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2906" uniqueCount="1517">
   <si>
     <t>new_ID</t>
   </si>
@@ -6504,7 +6504,7 @@
     <t xml:space="preserve"> 3 774</t>
   </si>
   <si>
-    <t xml:space="preserve">  -   </t>
+    <t xml:space="preserve">  ...   </t>
   </si>
   <si>
     <t>2 024 046</t>
@@ -6688,6 +6688,9 @@
   </si>
   <si>
     <t>Porcentaje de campos de cultivo con presencia ilegal de OVM en el Perú, 2016-2023 (porcentaje)</t>
+  </si>
+  <si>
+    <t>...</t>
   </si>
   <si>
     <t>3,3</t>
@@ -7064,7 +7067,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="84">
+  <fonts count="83">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7405,13 +7408,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -7636,10 +7632,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -7649,11 +7646,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -7661,7 +7657,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7851,12 +7847,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8291,26 +8281,29 @@
   </borders>
   <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="13" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8319,126 +8312,123 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="14" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="14" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="15" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="15" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="15" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="15" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="16" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="16" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="65" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="67" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="67" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="70" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="69" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -10227,13 +10217,15 @@
                 <c15:showLeaderLines val="0"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
                         <a:schemeClr val="tx2">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:prstDash val="solid"/>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -10363,6 +10355,7 @@
                 <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
           <a:effectLst/>
@@ -10440,8 +10433,10 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:prstDash val="solid"/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -10488,6 +10483,7 @@
           <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
+      <a:prstDash val="solid"/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -13415,13 +13411,15 @@
                 <c15:showLeaderLines val="0"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
                         <a:schemeClr val="tx2">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:prstDash val="solid"/>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -13556,6 +13554,7 @@
                 <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
           <a:effectLst/>
@@ -13611,8 +13610,10 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:prstDash val="solid"/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -13659,6 +13660,7 @@
           <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
+      <a:prstDash val="solid"/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -15222,10 +15224,13 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -15339,86 +15344,6 @@
 </file>
 
 <file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -16282,1046 +16207,6 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk2">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700">
-        <a:solidFill>
-          <a:schemeClr val="lt2"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="282">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="15875">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="800" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltDnDiag">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltDnDiag">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
-    </cs:spPr>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="major">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltDnDiag">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -17842,7 +16727,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -18345,7 +17230,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -18848,7 +17733,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -20358,27 +19243,33 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -20393,7 +19284,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -20401,7 +19292,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -20409,14 +19300,17 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -20425,8 +19319,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk2">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -20449,35 +19344,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="31750" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -20486,32 +19381,33 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt2"/>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -20527,16 +19423,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -20570,17 +19471,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -20589,14 +19490,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -20608,20 +19509,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -20635,16 +19542,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -20653,17 +19561,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -20672,16 +19580,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -20690,24 +19599,27 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -20715,19 +19627,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -20735,17 +19639,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -20754,9 +19658,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -20765,14 +19672,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -20781,7 +19688,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -20790,7 +19700,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -20811,7 +19721,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -20820,8 +19733,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -21330,509 +20249,6 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="266">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -22300,7 +20716,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -22816,6 +21232,577 @@
       <a:ln>
         <a:noFill/>
       </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="282">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
     </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
@@ -23709,7 +22696,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>5080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
@@ -23723,8 +22710,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4648200" y="1125855"/>
-        <a:ext cx="5682615" cy="2251710"/>
+        <a:off x="4648200" y="1102360"/>
+        <a:ext cx="5682615" cy="2275205"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -32965,7 +31952,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="5" id="{b05759da-cb4f-47b7-803f-c805c5984257}">
+          <x14:cfRule type="iconSet" priority="5" id="{078228ec-c51c-4c02-a1b9-ea4bf2e54efe}">
             <x14:iconSet iconSet="3Symbols" custom="1" showValue="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -32984,7 +31971,7 @@
           <xm:sqref>E21:N21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="4" id="{4885e8bb-5ab2-4104-8857-e739b02227e1}">
+          <x14:cfRule type="iconSet" priority="4" id="{252f6adf-a94b-45a8-84cd-a22fb2573d81}">
             <x14:iconSet iconSet="3Symbols" custom="1" showValue="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -33003,7 +31990,7 @@
           <xm:sqref>E22:N22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{2930986f-5d01-4be1-9821-d4ee3a2d5970}">
+          <x14:cfRule type="iconSet" priority="1" id="{13bac380-5c29-464b-97c0-3a7a719e362b}">
             <x14:iconSet iconSet="3Symbols" custom="1" showValue="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -33022,7 +32009,7 @@
           <xm:sqref>E2:N18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="6" id="{120611cc-6025-450b-92b1-6d446ef99a86}">
+          <x14:cfRule type="iconSet" priority="6" id="{56ba0b84-8396-4b1f-a5ae-3ffbee3abf91}">
             <x14:iconSet iconSet="3Symbols" custom="1" showValue="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -33041,7 +32028,7 @@
           <xm:sqref>E19:N20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="3" id="{a10412d5-f933-445e-a8b6-bd3ff9015cc3}">
+          <x14:cfRule type="iconSet" priority="3" id="{ad443dea-a2ad-4779-94ad-91cd8670f647}">
             <x14:iconSet iconSet="3Symbols" custom="1" showValue="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -33060,7 +32047,7 @@
           <xm:sqref>E24:N27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="8" id="{aaed6e3c-2143-4afb-93e2-d72d9abbe3eb}">
+          <x14:cfRule type="iconSet" priority="8" id="{589a2c9b-8cff-4310-994d-17f4d3375fe7}">
             <x14:iconSet iconSet="3Symbols" custom="1" showValue="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -33090,7 +32077,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5555555555556" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -33289,7 +32276,9 @@
       <c r="C14" s="104" t="s">
         <v>672</v>
       </c>
-      <c r="D14" s="104"/>
+      <c r="D14" s="104">
+        <v>0</v>
+      </c>
       <c r="E14" s="104" t="s">
         <v>750</v>
       </c>
@@ -33320,7 +32309,7 @@
   <sheetPr/>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -33775,7 +32764,7 @@
   <sheetPr/>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -34032,7 +33021,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5555555555556" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -34219,7 +33208,9 @@
       <c r="B13" s="104">
         <v>92</v>
       </c>
-      <c r="C13" s="104"/>
+      <c r="C13" s="104">
+        <v>0</v>
+      </c>
       <c r="D13" s="104" t="s">
         <v>820</v>
       </c>
@@ -34249,7 +33240,7 @@
   <sheetPr/>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24:C25"/>
     </sheetView>
   </sheetViews>
@@ -35837,8 +34828,8 @@
   <sheetPr/>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5555555555556" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -35888,7 +34879,7 @@
       <c r="B4" s="44" t="s">
         <v>572</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" t="s">
         <v>110</v>
       </c>
     </row>
@@ -37212,7 +36203,7 @@
   <sheetPr/>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -37631,7 +36622,7 @@
   <sheetPr/>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -37887,7 +36878,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5555555555556" defaultRowHeight="14.4"/>
@@ -38450,7 +37441,7 @@
   <sheetPr/>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -38705,8 +37696,8 @@
   <sheetPr/>
   <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5555555555556" defaultRowHeight="14.4"/>
@@ -39211,7 +38202,7 @@
   <sheetPr/>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -39467,7 +38458,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5555555555556" defaultRowHeight="14.4"/>
@@ -39510,18 +38501,30 @@
       <c r="A4" s="37" t="s">
         <v>538</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="38" t="s">
+        <v>1446</v>
+      </c>
       <c r="C4" s="38" t="s">
         <v>708</v>
       </c>
       <c r="D4" s="38" t="s">
         <v>708</v>
       </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
+      <c r="E4" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="I4" s="38" t="s">
+        <v>1446</v>
+      </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="28" t="s">
@@ -39534,15 +38537,23 @@
         <v>708</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>708</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
+      <c r="F5" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>1446</v>
+      </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="37" t="s">
@@ -39551,17 +38562,27 @@
       <c r="B6" s="38" t="s">
         <v>708</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
+      <c r="C6" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>1446</v>
+      </c>
       <c r="G6" s="38" t="s">
         <v>708</v>
       </c>
       <c r="H6" s="38" t="s">
         <v>708</v>
       </c>
-      <c r="I6" s="38"/>
+      <c r="I6" s="38" t="s">
+        <v>1446</v>
+      </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="28" t="s">
@@ -39579,31 +38600,55 @@
       <c r="E7" s="29" t="s">
         <v>708</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
+      <c r="F7" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="I7" s="38" t="s">
+        <v>1446</v>
+      </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="37" t="s">
         <v>545</v>
       </c>
-      <c r="B8" s="38"/>
+      <c r="B8" s="38" t="s">
+        <v>1446</v>
+      </c>
       <c r="C8" s="38" t="s">
-        <v>1447</v>
-      </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
+        <v>1448</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>1446</v>
+      </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="28" t="s">
         <v>547</v>
       </c>
-      <c r="B9" s="29"/>
+      <c r="B9" s="38" t="s">
+        <v>1446</v>
+      </c>
       <c r="C9" s="29" t="s">
         <v>708</v>
       </c>
@@ -39613,12 +38658,18 @@
       <c r="E9" s="29" t="s">
         <v>708</v>
       </c>
-      <c r="F9" s="29"/>
+      <c r="F9" s="38" t="s">
+        <v>1446</v>
+      </c>
       <c r="G9" s="29" t="s">
         <v>708</v>
       </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
+      <c r="H9" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="I9" s="38" t="s">
+        <v>1446</v>
+      </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="37" t="s">
@@ -39636,29 +38687,47 @@
       <c r="E10" s="38" t="s">
         <v>708</v>
       </c>
-      <c r="F10" s="38"/>
+      <c r="F10" s="38" t="s">
+        <v>1446</v>
+      </c>
       <c r="G10" s="38" t="s">
         <v>708</v>
       </c>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
+      <c r="H10" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="I10" s="38" t="s">
+        <v>1446</v>
+      </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="28" t="s">
         <v>549</v>
       </c>
-      <c r="B11" s="29"/>
+      <c r="B11" s="38" t="s">
+        <v>1446</v>
+      </c>
       <c r="C11" s="29" t="s">
         <v>708</v>
       </c>
-      <c r="D11" s="29"/>
+      <c r="D11" s="38" t="s">
+        <v>1446</v>
+      </c>
       <c r="E11" s="29" t="s">
-        <v>1448</v>
-      </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
+        <v>1449</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="I11" s="38" t="s">
+        <v>1446</v>
+      </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="37" t="s">
@@ -39671,15 +38740,23 @@
         <v>708</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>1449</v>
-      </c>
-      <c r="E12" s="38"/>
+        <v>1450</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>1446</v>
+      </c>
       <c r="F12" s="38" t="s">
         <v>708</v>
       </c>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
+      <c r="G12" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H12" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="I12" s="38" t="s">
+        <v>1446</v>
+      </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="28" t="s">
@@ -39697,13 +38774,17 @@
       <c r="E13" s="29" t="s">
         <v>708</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
+      <c r="F13" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>1446</v>
+      </c>
       <c r="H13" s="29" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="I13" s="29" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -39713,104 +38794,168 @@
       <c r="B14" s="38" t="s">
         <v>708</v>
       </c>
-      <c r="C14" s="38"/>
+      <c r="C14" s="38" t="s">
+        <v>1446</v>
+      </c>
       <c r="D14" s="38" t="s">
         <v>708</v>
       </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
+      <c r="E14" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>1446</v>
+      </c>
       <c r="G14" s="38" t="s">
         <v>708</v>
       </c>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
+      <c r="H14" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="I14" s="38" t="s">
+        <v>1446</v>
+      </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="28" t="s">
         <v>553</v>
       </c>
-      <c r="B15" s="29"/>
+      <c r="B15" s="38" t="s">
+        <v>1446</v>
+      </c>
       <c r="C15" s="29" t="s">
         <v>708</v>
       </c>
-      <c r="D15" s="29"/>
+      <c r="D15" s="38" t="s">
+        <v>1446</v>
+      </c>
       <c r="E15" s="29" t="s">
         <v>708</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
+      <c r="F15" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="I15" s="38" t="s">
+        <v>1446</v>
+      </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="37" t="s">
-        <v>1452</v>
-      </c>
-      <c r="B16" s="38"/>
+        <v>1453</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>1446</v>
+      </c>
       <c r="C16" s="38" t="s">
-        <v>1448</v>
-      </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
+        <v>1449</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H16" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="I16" s="38" t="s">
+        <v>1446</v>
+      </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="28" t="s">
         <v>555</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
+      <c r="B17" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>1446</v>
+      </c>
       <c r="H17" s="29" t="s">
-        <v>1453</v>
-      </c>
-      <c r="I17" s="29"/>
+        <v>1454</v>
+      </c>
+      <c r="I17" s="38" t="s">
+        <v>1446</v>
+      </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="37" t="s">
         <v>556</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
+      <c r="B18" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>1446</v>
+      </c>
       <c r="D18" s="38" t="s">
         <v>708</v>
       </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
+      <c r="E18" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H18" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="I18" s="38" t="s">
+        <v>1446</v>
+      </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="28" t="s">
         <v>557</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="C19" s="29" t="s">
         <v>708</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="I19" s="29" t="s">
         <v>708</v>
@@ -39820,120 +38965,184 @@
       <c r="A20" s="37" t="s">
         <v>558</v>
       </c>
-      <c r="B20" s="38"/>
+      <c r="B20" s="38" t="s">
+        <v>1446</v>
+      </c>
       <c r="C20" s="38" t="s">
         <v>708</v>
       </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
+      <c r="D20" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="G20" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H20" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="I20" s="38" t="s">
+        <v>1446</v>
+      </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="28" t="s">
         <v>559</v>
       </c>
-      <c r="B21" s="29"/>
+      <c r="B21" s="38" t="s">
+        <v>1446</v>
+      </c>
       <c r="C21" s="29" t="s">
         <v>708</v>
       </c>
       <c r="D21" s="29" t="s">
         <v>708</v>
       </c>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
+      <c r="E21" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="G21" s="38" t="s">
+        <v>1446</v>
+      </c>
       <c r="H21" s="29" t="s">
         <v>708</v>
       </c>
-      <c r="I21" s="29"/>
+      <c r="I21" s="38" t="s">
+        <v>1446</v>
+      </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="37" t="s">
         <v>560</v>
       </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
+      <c r="B22" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="G22" s="38" t="s">
+        <v>1446</v>
+      </c>
       <c r="H22" s="38" t="s">
-        <v>1460</v>
-      </c>
-      <c r="I22" s="38"/>
+        <v>1461</v>
+      </c>
+      <c r="I22" s="38" t="s">
+        <v>1446</v>
+      </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="28" t="s">
         <v>561</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
+      <c r="B23" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>1446</v>
+      </c>
       <c r="E23" s="29" t="s">
-        <v>1461</v>
-      </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
+        <v>1462</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="G23" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H23" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="I23" s="38" t="s">
+        <v>1446</v>
+      </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="37" t="s">
         <v>562</v>
       </c>
-      <c r="B24" s="38"/>
+      <c r="B24" s="38" t="s">
+        <v>1446</v>
+      </c>
       <c r="C24" s="38" t="s">
         <v>708</v>
       </c>
       <c r="D24" s="38" t="s">
         <v>708</v>
       </c>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
+      <c r="E24" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="G24" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H24" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="I24" s="38" t="s">
+        <v>1446</v>
+      </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="39" t="s">
         <v>14</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="E25" s="40" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="F25" s="40" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="G25" s="40" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="H25" s="40" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="I25" s="40" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="41" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="41" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -39953,7 +39162,7 @@
   <sheetPr/>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -39983,7 +39192,7 @@
         <v>568</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="3" ht="36" spans="1:3">
@@ -39994,7 +39203,7 @@
         <v>570</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -40016,7 +39225,7 @@
         <v>573</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="6" ht="48" spans="1:3">
@@ -40027,7 +39236,7 @@
         <v>575</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -40047,7 +39256,7 @@
         <v>579</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="9" ht="24" spans="1:3">
@@ -40058,7 +39267,7 @@
         <v>581</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -40091,7 +39300,7 @@
         <v>587</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -40102,7 +39311,7 @@
         <v>589</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="14" ht="24" spans="1:3">
@@ -40113,7 +39322,7 @@
         <v>591</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="15" ht="96" spans="1:3">
@@ -40124,7 +39333,7 @@
         <v>593</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -40135,7 +39344,7 @@
         <v>595</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -40146,7 +39355,7 @@
         <v>597</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -40155,7 +39364,7 @@
         <v>599</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -40164,7 +39373,7 @@
         <v>601</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -40186,7 +39395,7 @@
         <v>604</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
     </row>
   </sheetData>
@@ -40466,14 +39675,14 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5555555555556" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="25" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -40536,29 +39745,55 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="28" t="s">
-        <v>1452</v>
-      </c>
-      <c r="B5" s="29"/>
+        <v>1453</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>1446</v>
+      </c>
       <c r="C5" s="29">
         <v>1</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
+      <c r="D5" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>1446</v>
+      </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="37" t="s">
         <v>558</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
+      <c r="B6" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>1446</v>
+      </c>
       <c r="H6" s="38">
         <v>4</v>
       </c>
@@ -40597,12 +39832,12 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="41" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="41" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -40622,7 +39857,7 @@
   <sheetPr/>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -40652,7 +39887,7 @@
         <v>568</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="3" ht="48" spans="1:3">
@@ -40663,7 +39898,7 @@
         <v>570</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -40685,7 +39920,7 @@
         <v>573</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="6" ht="48" spans="1:3">
@@ -40696,7 +39931,7 @@
         <v>575</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -40716,7 +39951,7 @@
         <v>579</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="9" ht="24" spans="1:3">
@@ -40727,7 +39962,7 @@
         <v>581</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -40760,7 +39995,7 @@
         <v>587</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -40771,7 +40006,7 @@
         <v>589</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="14" ht="36" spans="1:3">
@@ -40782,7 +40017,7 @@
         <v>591</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="15" ht="96" spans="1:3">
@@ -40793,7 +40028,7 @@
         <v>593</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -40804,7 +40039,7 @@
         <v>595</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -40815,7 +40050,7 @@
         <v>597</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -40824,7 +40059,7 @@
         <v>599</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -40833,7 +40068,7 @@
         <v>601</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -40855,7 +40090,7 @@
         <v>604</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
     </row>
   </sheetData>
@@ -40879,14 +40114,14 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5555555555556" defaultRowHeight="14.4" outlineLevelRow="5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="25" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -40930,24 +40165,24 @@
         <v>1223</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="F4" s="29" t="s">
         <v>1226</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="H4" s="29" t="s">
         <v>1226</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="30" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="B5" s="31"/>
     </row>
@@ -40969,7 +40204,7 @@
   <sheetPr/>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -41000,7 +40235,7 @@
         <v>568</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="3" ht="96" spans="1:3">
@@ -41011,7 +40246,7 @@
         <v>570</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -41022,7 +40257,7 @@
         <v>572</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="5" ht="96" spans="1:3">
@@ -41033,7 +40268,7 @@
         <v>573</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="6" ht="336" spans="1:3">
@@ -41044,7 +40279,7 @@
         <v>575</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="7" ht="24" spans="1:3">
@@ -41055,7 +40290,7 @@
         <v>577</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="8" ht="36" spans="1:3">
@@ -41064,7 +40299,7 @@
         <v>579</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -41075,7 +40310,7 @@
         <v>581</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -41130,7 +40365,7 @@
         <v>591</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="15" ht="60" spans="1:3">
@@ -41141,7 +40376,7 @@
         <v>593</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -41152,7 +40387,7 @@
         <v>595</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="17" ht="24" spans="1:3">
@@ -41163,7 +40398,7 @@
         <v>597</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="18" ht="24" spans="1:3">
@@ -41172,7 +40407,7 @@
         <v>599</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -41181,7 +40416,7 @@
         <v>601</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -41203,7 +40438,7 @@
         <v>604</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
     </row>
   </sheetData>
@@ -41667,7 +40902,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5555555555556" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -41886,7 +41121,7 @@
   <sheetPr/>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -42143,7 +41378,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5555555555556" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -42387,7 +41622,7 @@
   <sheetPr/>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>

--- a/dev/ind comp2_OR_enviar.xlsx
+++ b/dev/ind comp2_OR_enviar.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22176" windowHeight="9720" tabRatio="918" firstSheet="9" activeTab="18"/>
+    <workbookView windowWidth="22188" windowHeight="9707" tabRatio="918" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="indicadores anuario" sheetId="1" r:id="rId1"/>
@@ -1808,7 +1808,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2906" uniqueCount="1517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2903" uniqueCount="1515">
   <si>
     <t>new_ID</t>
   </si>
@@ -3975,9 +3975,6 @@
     <t>2016-2017</t>
   </si>
   <si>
-    <t>- 654 687</t>
-  </si>
-  <si>
     <t>1 583 076</t>
   </si>
   <si>
@@ -4202,9 +4199,6 @@
   </si>
   <si>
     <t>0,2</t>
-  </si>
-  <si>
-    <t>- 4 310</t>
   </si>
   <si>
     <t>0,0</t>
@@ -7632,6 +7626,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -7639,19 +7645,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Tahoma"/>
       <charset val="134"/>
@@ -31952,7 +31946,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="5" id="{078228ec-c51c-4c02-a1b9-ea4bf2e54efe}">
+          <x14:cfRule type="iconSet" priority="5" id="{a32e7ad1-d807-465e-b4ef-1663981a6d69}">
             <x14:iconSet iconSet="3Symbols" custom="1" showValue="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -31971,7 +31965,7 @@
           <xm:sqref>E21:N21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="4" id="{252f6adf-a94b-45a8-84cd-a22fb2573d81}">
+          <x14:cfRule type="iconSet" priority="4" id="{2b2901b9-1021-4f74-b8f9-2a435154c8d3}">
             <x14:iconSet iconSet="3Symbols" custom="1" showValue="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -31990,7 +31984,7 @@
           <xm:sqref>E22:N22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{13bac380-5c29-464b-97c0-3a7a719e362b}">
+          <x14:cfRule type="iconSet" priority="1" id="{c7bf4583-a15d-44aa-b15e-dcc96b040cc4}">
             <x14:iconSet iconSet="3Symbols" custom="1" showValue="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -32009,7 +32003,7 @@
           <xm:sqref>E2:N18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="6" id="{56ba0b84-8396-4b1f-a5ae-3ffbee3abf91}">
+          <x14:cfRule type="iconSet" priority="6" id="{77dba540-2b88-4288-8884-5637ced1cb0f}">
             <x14:iconSet iconSet="3Symbols" custom="1" showValue="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -32028,7 +32022,7 @@
           <xm:sqref>E19:N20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="3" id="{ad443dea-a2ad-4779-94ad-91cd8670f647}">
+          <x14:cfRule type="iconSet" priority="3" id="{1cb4679d-eb31-41fb-940b-33ade8630b12}">
             <x14:iconSet iconSet="3Symbols" custom="1" showValue="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -32047,7 +32041,7 @@
           <xm:sqref>E24:N27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="8" id="{589a2c9b-8cff-4310-994d-17f4d3375fe7}">
+          <x14:cfRule type="iconSet" priority="8" id="{a1926211-6482-4756-97a2-5d1e8e052175}">
             <x14:iconSet iconSet="3Symbols" custom="1" showValue="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -32084,7 +32078,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="25" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -32101,16 +32095,16 @@
     <row r="4" ht="30.6" spans="1:5">
       <c r="A4" s="78"/>
       <c r="B4" s="78" t="s">
+        <v>724</v>
+      </c>
+      <c r="C4" s="78" t="s">
+        <v>695</v>
+      </c>
+      <c r="D4" s="78" t="s">
+        <v>725</v>
+      </c>
+      <c r="E4" s="78" t="s">
         <v>726</v>
-      </c>
-      <c r="C4" s="78" t="s">
-        <v>696</v>
-      </c>
-      <c r="D4" s="78" t="s">
-        <v>727</v>
-      </c>
-      <c r="E4" s="78" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -32118,16 +32112,16 @@
         <v>626</v>
       </c>
       <c r="B5" s="65" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C5" s="65" t="s">
         <v>628</v>
       </c>
       <c r="D5" s="65" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E5" s="65" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -32135,16 +32129,16 @@
         <v>631</v>
       </c>
       <c r="B6" s="99" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C6" s="99" t="s">
         <v>633</v>
       </c>
       <c r="D6" s="99" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E6" s="99" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -32152,16 +32146,16 @@
         <v>636</v>
       </c>
       <c r="B7" s="65" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C7" s="65" t="s">
         <v>638</v>
       </c>
       <c r="D7" s="65" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E7" s="65" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -32169,101 +32163,101 @@
         <v>641</v>
       </c>
       <c r="B8" s="99" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C8" s="99" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D8" s="99" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E8" s="99" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="70" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B9" s="65" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C9" s="65" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D9" s="65" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E9" s="65" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="69" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B10" s="99" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C10" s="99" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D10" s="99" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E10" s="99" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="70" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B11" s="65" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C11" s="65" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D11" s="65" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E11" s="65" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="69" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B12" s="99" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C12" s="99" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D12" s="99" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E12" s="99" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="70" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B13" s="65" t="s">
+        <v>744</v>
+      </c>
+      <c r="C13" s="65" t="s">
+        <v>667</v>
+      </c>
+      <c r="D13" s="65" t="s">
+        <v>745</v>
+      </c>
+      <c r="E13" s="65" t="s">
         <v>746</v>
-      </c>
-      <c r="C13" s="65" t="s">
-        <v>668</v>
-      </c>
-      <c r="D13" s="65" t="s">
-        <v>747</v>
-      </c>
-      <c r="E13" s="65" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -32271,26 +32265,26 @@
         <v>14</v>
       </c>
       <c r="B14" s="104" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C14" s="104" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D14" s="104">
         <v>0</v>
       </c>
       <c r="E14" s="104" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="41" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="41" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
   </sheetData>
@@ -32328,7 +32322,7 @@
         <v>566</v>
       </c>
       <c r="C1" s="105" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="2" ht="60" spans="1:3">
@@ -32339,7 +32333,7 @@
         <v>568</v>
       </c>
       <c r="C2" s="105" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="3" ht="24" spans="1:3">
@@ -32350,7 +32344,7 @@
         <v>570</v>
       </c>
       <c r="C3" s="105" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -32361,7 +32355,7 @@
         <v>572</v>
       </c>
       <c r="C4" s="105" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="5" ht="36" spans="1:3">
@@ -32372,7 +32366,7 @@
         <v>573</v>
       </c>
       <c r="C5" s="105" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -32383,7 +32377,7 @@
         <v>575</v>
       </c>
       <c r="C6" s="109" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -32394,7 +32388,7 @@
         <v>577</v>
       </c>
       <c r="C7" s="105" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -32403,7 +32397,7 @@
         <v>579</v>
       </c>
       <c r="C8" s="105" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="9" ht="24" spans="1:3">
@@ -32414,7 +32408,7 @@
         <v>581</v>
       </c>
       <c r="C9" s="110" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -32425,7 +32419,7 @@
         <v>583</v>
       </c>
       <c r="C10" s="105" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -32436,7 +32430,7 @@
         <v>585</v>
       </c>
       <c r="C11" s="105" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -32447,7 +32441,7 @@
         <v>587</v>
       </c>
       <c r="C12" s="105" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -32469,7 +32463,7 @@
         <v>591</v>
       </c>
       <c r="C14" s="107" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="15" ht="24" spans="1:3">
@@ -32480,7 +32474,7 @@
         <v>593</v>
       </c>
       <c r="C15" s="105" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="16" ht="24" spans="1:3">
@@ -32491,7 +32485,7 @@
         <v>595</v>
       </c>
       <c r="C16" s="177" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -32502,7 +32496,7 @@
         <v>597</v>
       </c>
       <c r="C17" s="105" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -32511,7 +32505,7 @@
         <v>599</v>
       </c>
       <c r="C18" s="110" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -32520,7 +32514,7 @@
         <v>601</v>
       </c>
       <c r="C19" s="105" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -32542,7 +32536,7 @@
         <v>604</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
   </sheetData>
@@ -32573,7 +32567,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="25" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -32589,13 +32583,13 @@
     <row r="4" ht="20.4" spans="1:4">
       <c r="A4" s="78"/>
       <c r="B4" s="78" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C4" s="78" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D4" s="78" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -32603,13 +32597,13 @@
         <v>626</v>
       </c>
       <c r="B5" s="65" t="s">
+        <v>758</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>759</v>
+      </c>
+      <c r="D5" s="65" t="s">
         <v>760</v>
-      </c>
-      <c r="C5" s="65" t="s">
-        <v>761</v>
-      </c>
-      <c r="D5" s="65" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -32617,13 +32611,13 @@
         <v>631</v>
       </c>
       <c r="B6" s="99" t="s">
+        <v>761</v>
+      </c>
+      <c r="C6" s="99" t="s">
+        <v>762</v>
+      </c>
+      <c r="D6" s="99" t="s">
         <v>763</v>
-      </c>
-      <c r="C6" s="99" t="s">
-        <v>764</v>
-      </c>
-      <c r="D6" s="99" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -32631,13 +32625,13 @@
         <v>636</v>
       </c>
       <c r="B7" s="65" t="s">
+        <v>764</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>765</v>
+      </c>
+      <c r="D7" s="65" t="s">
         <v>766</v>
-      </c>
-      <c r="C7" s="65" t="s">
-        <v>767</v>
-      </c>
-      <c r="D7" s="65" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -32645,83 +32639,83 @@
         <v>641</v>
       </c>
       <c r="B8" s="99" t="s">
+        <v>767</v>
+      </c>
+      <c r="C8" s="99" t="s">
+        <v>768</v>
+      </c>
+      <c r="D8" s="99" t="s">
         <v>769</v>
-      </c>
-      <c r="C8" s="99" t="s">
-        <v>770</v>
-      </c>
-      <c r="D8" s="99" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="70" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B9" s="65" t="s">
+        <v>770</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>771</v>
+      </c>
+      <c r="D9" s="65" t="s">
         <v>772</v>
-      </c>
-      <c r="C9" s="65" t="s">
-        <v>773</v>
-      </c>
-      <c r="D9" s="65" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="69" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B10" s="99" t="s">
+        <v>773</v>
+      </c>
+      <c r="C10" s="99" t="s">
+        <v>774</v>
+      </c>
+      <c r="D10" s="99" t="s">
         <v>775</v>
-      </c>
-      <c r="C10" s="99" t="s">
-        <v>776</v>
-      </c>
-      <c r="D10" s="99" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="70" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B11" s="65" t="s">
+        <v>776</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>777</v>
+      </c>
+      <c r="D11" s="65" t="s">
         <v>778</v>
-      </c>
-      <c r="C11" s="65" t="s">
-        <v>779</v>
-      </c>
-      <c r="D11" s="65" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="69" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B12" s="99" t="s">
+        <v>779</v>
+      </c>
+      <c r="C12" s="99" t="s">
+        <v>780</v>
+      </c>
+      <c r="D12" s="99" t="s">
         <v>781</v>
-      </c>
-      <c r="C12" s="99" t="s">
-        <v>782</v>
-      </c>
-      <c r="D12" s="99" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="70" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B13" s="65" t="s">
+        <v>782</v>
+      </c>
+      <c r="C13" s="65" t="s">
+        <v>783</v>
+      </c>
+      <c r="D13" s="65" t="s">
         <v>784</v>
-      </c>
-      <c r="C13" s="65" t="s">
-        <v>785</v>
-      </c>
-      <c r="D13" s="65" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -32729,23 +32723,23 @@
         <v>14</v>
       </c>
       <c r="B14" s="104" t="s">
+        <v>785</v>
+      </c>
+      <c r="C14" s="104" t="s">
+        <v>786</v>
+      </c>
+      <c r="D14" s="104" t="s">
         <v>787</v>
-      </c>
-      <c r="C14" s="104" t="s">
-        <v>788</v>
-      </c>
-      <c r="D14" s="104" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="41" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="41" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
   </sheetData>
@@ -32783,7 +32777,7 @@
         <v>566</v>
       </c>
       <c r="C1" s="105" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="2" ht="60" spans="1:3">
@@ -32794,7 +32788,7 @@
         <v>568</v>
       </c>
       <c r="C2" s="105" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="3" ht="24" spans="1:3">
@@ -32805,7 +32799,7 @@
         <v>570</v>
       </c>
       <c r="C3" s="105" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -32816,7 +32810,7 @@
         <v>572</v>
       </c>
       <c r="C4" s="105" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="5" ht="24" spans="1:3">
@@ -32827,7 +32821,7 @@
         <v>573</v>
       </c>
       <c r="C5" s="105" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="6" ht="24" spans="1:3">
@@ -32838,7 +32832,7 @@
         <v>575</v>
       </c>
       <c r="C6" s="105" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -32849,7 +32843,7 @@
         <v>577</v>
       </c>
       <c r="C7" s="105" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -32858,7 +32852,7 @@
         <v>579</v>
       </c>
       <c r="C8" s="105" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="9" ht="28.8" spans="1:3">
@@ -32869,7 +32863,7 @@
         <v>581</v>
       </c>
       <c r="C9" s="106" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -32880,7 +32874,7 @@
         <v>583</v>
       </c>
       <c r="C10" s="105" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -32891,7 +32885,7 @@
         <v>585</v>
       </c>
       <c r="C11" s="105" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -32902,7 +32896,7 @@
         <v>587</v>
       </c>
       <c r="C12" s="105" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -32924,7 +32918,7 @@
         <v>591</v>
       </c>
       <c r="C14" s="107" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="15" ht="24" spans="1:3">
@@ -32935,7 +32929,7 @@
         <v>593</v>
       </c>
       <c r="C15" s="105" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="16" ht="24" spans="1:3">
@@ -32946,7 +32940,7 @@
         <v>595</v>
       </c>
       <c r="C16" s="177" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -32957,7 +32951,7 @@
         <v>597</v>
       </c>
       <c r="C17" s="105" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -32966,7 +32960,7 @@
         <v>599</v>
       </c>
       <c r="C18" s="106" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -32975,7 +32969,7 @@
         <v>601</v>
       </c>
       <c r="C19" s="105" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -32997,7 +32991,7 @@
         <v>604</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
   </sheetData>
@@ -33028,7 +33022,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="25" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="3" ht="40.8" spans="1:5">
@@ -33036,16 +33030,16 @@
         <v>622</v>
       </c>
       <c r="B3" s="78" t="s">
+        <v>795</v>
+      </c>
+      <c r="C3" s="78" t="s">
+        <v>796</v>
+      </c>
+      <c r="D3" s="78" t="s">
         <v>797</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="E3" s="78" t="s">
         <v>798</v>
-      </c>
-      <c r="D3" s="78" t="s">
-        <v>799</v>
-      </c>
-      <c r="E3" s="78" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -33059,10 +33053,10 @@
         <v>92</v>
       </c>
       <c r="D4" s="99" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="E4" s="99" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -33076,10 +33070,10 @@
         <v>92</v>
       </c>
       <c r="D5" s="65" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E5" s="102" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -33093,10 +33087,10 @@
         <v>92</v>
       </c>
       <c r="D6" s="99" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E6" s="99" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -33110,10 +33104,10 @@
         <v>92</v>
       </c>
       <c r="D7" s="65" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E7" s="102" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -33127,10 +33121,10 @@
         <v>92</v>
       </c>
       <c r="D8" s="99" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E8" s="99" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -33144,10 +33138,10 @@
         <v>92</v>
       </c>
       <c r="D9" s="65" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E9" s="102" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -33161,10 +33155,10 @@
         <v>92</v>
       </c>
       <c r="D10" s="99" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E10" s="99" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -33178,10 +33172,10 @@
         <v>92</v>
       </c>
       <c r="D11" s="65" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E11" s="102" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -33195,15 +33189,15 @@
         <v>92</v>
       </c>
       <c r="D12" s="99" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E12" s="99" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="103" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B13" s="104">
         <v>92</v>
@@ -33212,20 +33206,20 @@
         <v>0</v>
       </c>
       <c r="D13" s="104" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E13" s="104" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="41" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="41" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
   </sheetData>
@@ -33270,7 +33264,7 @@
         <v>568</v>
       </c>
       <c r="C2" s="90" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="3" ht="24" spans="1:3">
@@ -33281,7 +33275,7 @@
         <v>570</v>
       </c>
       <c r="C3" s="90" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -33303,7 +33297,7 @@
         <v>573</v>
       </c>
       <c r="C5" s="90" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -33314,7 +33308,7 @@
         <v>575</v>
       </c>
       <c r="C6" s="91" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -33325,7 +33319,7 @@
         <v>577</v>
       </c>
       <c r="C7" s="90" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -33334,7 +33328,7 @@
         <v>579</v>
       </c>
       <c r="C8" s="90" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="9" ht="24" spans="1:3">
@@ -33345,7 +33339,7 @@
         <v>581</v>
       </c>
       <c r="C9" s="94" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -33356,7 +33350,7 @@
         <v>583</v>
       </c>
       <c r="C10" s="90" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -33367,7 +33361,7 @@
         <v>585</v>
       </c>
       <c r="C11" s="90" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -33378,7 +33372,7 @@
         <v>587</v>
       </c>
       <c r="C12" s="90" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -33400,7 +33394,7 @@
         <v>591</v>
       </c>
       <c r="C14" s="96" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="15" ht="24" spans="1:3">
@@ -33411,7 +33405,7 @@
         <v>593</v>
       </c>
       <c r="C15" s="90" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="16" ht="24" spans="1:3">
@@ -33422,7 +33416,7 @@
         <v>595</v>
       </c>
       <c r="C16" s="178" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -33433,7 +33427,7 @@
         <v>597</v>
       </c>
       <c r="C17" s="90" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -33442,7 +33436,7 @@
         <v>599</v>
       </c>
       <c r="C18" s="94" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -33451,7 +33445,7 @@
         <v>601</v>
       </c>
       <c r="C19" s="90" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -33473,7 +33467,7 @@
         <v>604</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
   </sheetData>
@@ -33504,24 +33498,24 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="25" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="3" ht="20.4" spans="1:6">
       <c r="A3" s="36" t="s">
+        <v>825</v>
+      </c>
+      <c r="B3" s="78" t="s">
+        <v>826</v>
+      </c>
+      <c r="C3" s="78" t="s">
         <v>827</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="D3" s="78" t="s">
         <v>828</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="E3" s="78" t="s">
         <v>829</v>
-      </c>
-      <c r="D3" s="78" t="s">
-        <v>830</v>
-      </c>
-      <c r="E3" s="78" t="s">
-        <v>831</v>
       </c>
       <c r="F3" s="78" t="s">
         <v>14</v>
@@ -33529,7 +33523,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="37" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B4" s="99">
         <v>42</v>
@@ -33549,32 +33543,32 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="28" t="s">
+        <v>831</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>832</v>
+      </c>
+      <c r="C5" s="29" t="s">
         <v>833</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="D5" s="29" t="s">
+        <v>832</v>
+      </c>
+      <c r="E5" s="29" t="s">
         <v>834</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="F5" s="29" t="s">
         <v>835</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>834</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>836</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="30" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="30" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
   </sheetData>
@@ -33619,7 +33613,7 @@
         <v>568</v>
       </c>
       <c r="C2" s="90" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="3" ht="24" spans="1:3">
@@ -33630,7 +33624,7 @@
         <v>570</v>
       </c>
       <c r="C3" s="90" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -33652,7 +33646,7 @@
         <v>573</v>
       </c>
       <c r="C5" s="90" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -33663,7 +33657,7 @@
         <v>575</v>
       </c>
       <c r="C6" s="91" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -33674,7 +33668,7 @@
         <v>577</v>
       </c>
       <c r="C7" s="90" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -33683,7 +33677,7 @@
         <v>579</v>
       </c>
       <c r="C8" s="90" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="9" ht="24" spans="1:3">
@@ -33694,7 +33688,7 @@
         <v>581</v>
       </c>
       <c r="C9" s="94" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -33705,7 +33699,7 @@
         <v>583</v>
       </c>
       <c r="C10" s="90" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -33716,7 +33710,7 @@
         <v>585</v>
       </c>
       <c r="C11" s="90" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -33727,7 +33721,7 @@
         <v>587</v>
       </c>
       <c r="C12" s="90" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -33749,7 +33743,7 @@
         <v>591</v>
       </c>
       <c r="C14" s="96" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="15" ht="24" spans="1:3">
@@ -33760,7 +33754,7 @@
         <v>593</v>
       </c>
       <c r="C15" s="90" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="16" ht="24" spans="1:3">
@@ -33771,7 +33765,7 @@
         <v>595</v>
       </c>
       <c r="C16" s="178" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -33782,7 +33776,7 @@
         <v>597</v>
       </c>
       <c r="C17" s="90" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -33791,7 +33785,7 @@
         <v>599</v>
       </c>
       <c r="C18" s="94" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -33800,7 +33794,7 @@
         <v>601</v>
       </c>
       <c r="C19" s="90" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -33822,7 +33816,7 @@
         <v>604</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
   </sheetData>
@@ -33853,12 +33847,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="87" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="36" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B3" s="27">
         <v>2014</v>
@@ -33888,7 +33882,7 @@
         <v>2022</v>
       </c>
       <c r="K3" s="27" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -33896,34 +33890,34 @@
         <v>538</v>
       </c>
       <c r="B4" s="38" t="s">
+        <v>842</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>843</v>
+      </c>
+      <c r="D4" s="38" t="s">
         <v>844</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="E4" s="38" t="s">
         <v>845</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="F4" s="38" t="s">
         <v>846</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="G4" s="38" t="s">
         <v>847</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="H4" s="38" t="s">
         <v>848</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="I4" s="38" t="s">
         <v>849</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="J4" s="38" t="s">
         <v>850</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="K4" s="38" t="s">
         <v>851</v>
-      </c>
-      <c r="J4" s="38" t="s">
-        <v>852</v>
-      </c>
-      <c r="K4" s="38" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -33931,34 +33925,34 @@
         <v>539</v>
       </c>
       <c r="B5" s="29" t="s">
+        <v>852</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>853</v>
+      </c>
+      <c r="D5" s="29" t="s">
         <v>854</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="E5" s="29" t="s">
         <v>855</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="F5" s="29" t="s">
         <v>856</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="G5" s="29" t="s">
         <v>857</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="H5" s="29" t="s">
         <v>858</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="I5" s="29" t="s">
         <v>859</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="J5" s="29" t="s">
         <v>860</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="K5" s="29" t="s">
         <v>861</v>
-      </c>
-      <c r="J5" s="29" t="s">
-        <v>862</v>
-      </c>
-      <c r="K5" s="29" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -33966,34 +33960,34 @@
         <v>540</v>
       </c>
       <c r="B6" s="38" t="s">
+        <v>862</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>862</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>863</v>
+      </c>
+      <c r="E6" s="38" t="s">
         <v>864</v>
       </c>
-      <c r="C6" s="38" t="s">
-        <v>864</v>
-      </c>
-      <c r="D6" s="38" t="s">
+      <c r="F6" s="38" t="s">
+        <v>862</v>
+      </c>
+      <c r="G6" s="38" t="s">
         <v>865</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="H6" s="38" t="s">
         <v>866</v>
       </c>
-      <c r="F6" s="38" t="s">
-        <v>864</v>
-      </c>
-      <c r="G6" s="38" t="s">
+      <c r="I6" s="38" t="s">
         <v>867</v>
       </c>
-      <c r="H6" s="38" t="s">
+      <c r="J6" s="38" t="s">
         <v>868</v>
       </c>
-      <c r="I6" s="38" t="s">
+      <c r="K6" s="38" t="s">
         <v>869</v>
-      </c>
-      <c r="J6" s="38" t="s">
-        <v>870</v>
-      </c>
-      <c r="K6" s="38" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -34001,69 +33995,69 @@
         <v>541</v>
       </c>
       <c r="B7" s="29" t="s">
+        <v>870</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>871</v>
+      </c>
+      <c r="D7" s="29" t="s">
         <v>872</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="E7" s="29" t="s">
         <v>873</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="F7" s="29" t="s">
         <v>874</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="G7" s="29" t="s">
         <v>875</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="H7" s="29" t="s">
         <v>876</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="I7" s="29" t="s">
         <v>877</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="J7" s="29" t="s">
         <v>878</v>
       </c>
-      <c r="I7" s="29" t="s">
+      <c r="K7" s="29" t="s">
         <v>879</v>
-      </c>
-      <c r="J7" s="29" t="s">
-        <v>880</v>
-      </c>
-      <c r="K7" s="29" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="37" t="s">
+        <v>880</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>881</v>
+      </c>
+      <c r="C8" s="38" t="s">
         <v>882</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="D8" s="38" t="s">
         <v>883</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="E8" s="38" t="s">
         <v>884</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="F8" s="38" t="s">
         <v>885</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="G8" s="38" t="s">
         <v>886</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="H8" s="38" t="s">
         <v>887</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="I8" s="38" t="s">
         <v>888</v>
       </c>
-      <c r="H8" s="38" t="s">
+      <c r="J8" s="38" t="s">
         <v>889</v>
       </c>
-      <c r="I8" s="38" t="s">
+      <c r="K8" s="38" t="s">
         <v>890</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>891</v>
-      </c>
-      <c r="K8" s="38" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -34071,34 +34065,34 @@
         <v>543</v>
       </c>
       <c r="B9" s="29" t="s">
+        <v>891</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>892</v>
+      </c>
+      <c r="D9" s="29" t="s">
         <v>893</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="E9" s="29" t="s">
         <v>894</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="F9" s="29" t="s">
         <v>895</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="G9" s="29" t="s">
         <v>896</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="H9" s="29" t="s">
         <v>897</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="I9" s="29" t="s">
         <v>898</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="J9" s="29" t="s">
         <v>899</v>
       </c>
-      <c r="I9" s="29" t="s">
+      <c r="K9" s="29" t="s">
         <v>900</v>
-      </c>
-      <c r="J9" s="29" t="s">
-        <v>901</v>
-      </c>
-      <c r="K9" s="29" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -34106,34 +34100,34 @@
         <v>544</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="H10" s="38" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="I10" s="38" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="J10" s="38" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="K10" s="38" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -34141,34 +34135,34 @@
         <v>545</v>
       </c>
       <c r="B11" s="29" t="s">
+        <v>901</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>902</v>
+      </c>
+      <c r="D11" s="29" t="s">
         <v>903</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="E11" s="29" t="s">
         <v>904</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="F11" s="29" t="s">
         <v>905</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="G11" s="29" t="s">
         <v>906</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="H11" s="29" t="s">
         <v>907</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="I11" s="29" t="s">
         <v>908</v>
       </c>
-      <c r="H11" s="29" t="s">
+      <c r="J11" s="29" t="s">
         <v>909</v>
       </c>
-      <c r="I11" s="29" t="s">
+      <c r="K11" s="29" t="s">
         <v>910</v>
-      </c>
-      <c r="J11" s="29" t="s">
-        <v>911</v>
-      </c>
-      <c r="K11" s="29" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -34176,34 +34170,34 @@
         <v>546</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C12" s="38" t="s">
+        <v>862</v>
+      </c>
+      <c r="D12" s="38" t="s">
         <v>864</v>
       </c>
-      <c r="D12" s="38" t="s">
-        <v>866</v>
-      </c>
       <c r="E12" s="38" t="s">
+        <v>911</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>862</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>912</v>
+      </c>
+      <c r="H12" s="38" t="s">
         <v>913</v>
       </c>
-      <c r="F12" s="38" t="s">
-        <v>864</v>
-      </c>
-      <c r="G12" s="38" t="s">
+      <c r="I12" s="38" t="s">
+        <v>862</v>
+      </c>
+      <c r="J12" s="38" t="s">
         <v>914</v>
       </c>
-      <c r="H12" s="38" t="s">
-        <v>915</v>
-      </c>
-      <c r="I12" s="38" t="s">
-        <v>864</v>
-      </c>
-      <c r="J12" s="38" t="s">
-        <v>916</v>
-      </c>
       <c r="K12" s="38" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -34211,69 +34205,69 @@
         <v>547</v>
       </c>
       <c r="B13" s="29" t="s">
+        <v>915</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>916</v>
+      </c>
+      <c r="D13" s="29" t="s">
         <v>917</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="E13" s="29" t="s">
         <v>918</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="F13" s="29" t="s">
         <v>919</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="G13" s="29" t="s">
         <v>920</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="H13" s="29" t="s">
         <v>921</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="I13" s="29" t="s">
         <v>922</v>
       </c>
-      <c r="H13" s="29" t="s">
+      <c r="J13" s="29" t="s">
         <v>923</v>
       </c>
-      <c r="I13" s="29" t="s">
+      <c r="K13" s="29" t="s">
         <v>924</v>
-      </c>
-      <c r="J13" s="29" t="s">
-        <v>925</v>
-      </c>
-      <c r="K13" s="29" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="37" t="s">
+        <v>925</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>862</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>926</v>
+      </c>
+      <c r="D14" s="38" t="s">
         <v>927</v>
       </c>
-      <c r="B14" s="38" t="s">
-        <v>864</v>
-      </c>
-      <c r="C14" s="38" t="s">
+      <c r="E14" s="38" t="s">
         <v>928</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="F14" s="38" t="s">
         <v>929</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="G14" s="38" t="s">
         <v>930</v>
       </c>
-      <c r="F14" s="38" t="s">
+      <c r="H14" s="38" t="s">
         <v>931</v>
       </c>
-      <c r="G14" s="38" t="s">
+      <c r="I14" s="38" t="s">
         <v>932</v>
       </c>
-      <c r="H14" s="38" t="s">
+      <c r="J14" s="38" t="s">
         <v>933</v>
       </c>
-      <c r="I14" s="38" t="s">
+      <c r="K14" s="38" t="s">
         <v>934</v>
-      </c>
-      <c r="J14" s="38" t="s">
-        <v>935</v>
-      </c>
-      <c r="K14" s="38" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -34281,34 +34275,34 @@
         <v>549</v>
       </c>
       <c r="B15" s="29" t="s">
+        <v>935</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>936</v>
+      </c>
+      <c r="D15" s="29" t="s">
         <v>937</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="E15" s="29" t="s">
         <v>938</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="F15" s="29" t="s">
         <v>939</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="G15" s="29" t="s">
         <v>940</v>
       </c>
-      <c r="F15" s="29" t="s">
+      <c r="H15" s="29" t="s">
         <v>941</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="I15" s="29" t="s">
         <v>942</v>
       </c>
-      <c r="H15" s="29" t="s">
+      <c r="J15" s="29" t="s">
         <v>943</v>
       </c>
-      <c r="I15" s="29" t="s">
+      <c r="K15" s="29" t="s">
         <v>944</v>
-      </c>
-      <c r="J15" s="29" t="s">
-        <v>945</v>
-      </c>
-      <c r="K15" s="29" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -34316,34 +34310,34 @@
         <v>550</v>
       </c>
       <c r="B16" s="38" t="s">
+        <v>945</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>946</v>
+      </c>
+      <c r="D16" s="38" t="s">
         <v>947</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="E16" s="38" t="s">
         <v>948</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="F16" s="38" t="s">
         <v>949</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="G16" s="38" t="s">
         <v>950</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="H16" s="38" t="s">
         <v>951</v>
       </c>
-      <c r="G16" s="38" t="s">
+      <c r="I16" s="38" t="s">
         <v>952</v>
       </c>
-      <c r="H16" s="38" t="s">
+      <c r="J16" s="38" t="s">
         <v>953</v>
       </c>
-      <c r="I16" s="38" t="s">
+      <c r="K16" s="38" t="s">
         <v>954</v>
-      </c>
-      <c r="J16" s="38" t="s">
-        <v>955</v>
-      </c>
-      <c r="K16" s="38" t="s">
-        <v>956</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -34351,34 +34345,34 @@
         <v>551</v>
       </c>
       <c r="B17" s="29" t="s">
+        <v>955</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>956</v>
+      </c>
+      <c r="D17" s="29" t="s">
         <v>957</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="E17" s="29" t="s">
         <v>958</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="F17" s="29" t="s">
         <v>959</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="G17" s="29" t="s">
         <v>960</v>
       </c>
-      <c r="F17" s="29" t="s">
+      <c r="H17" s="29" t="s">
         <v>961</v>
       </c>
-      <c r="G17" s="29" t="s">
+      <c r="I17" s="29" t="s">
         <v>962</v>
       </c>
-      <c r="H17" s="29" t="s">
+      <c r="J17" s="29" t="s">
         <v>963</v>
       </c>
-      <c r="I17" s="29" t="s">
+      <c r="K17" s="29" t="s">
         <v>964</v>
-      </c>
-      <c r="J17" s="29" t="s">
-        <v>965</v>
-      </c>
-      <c r="K17" s="29" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -34386,34 +34380,34 @@
         <v>552</v>
       </c>
       <c r="B18" s="38" t="s">
+        <v>965</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>966</v>
+      </c>
+      <c r="D18" s="38" t="s">
         <v>967</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="E18" s="38" t="s">
         <v>968</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="F18" s="38" t="s">
         <v>969</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="G18" s="38" t="s">
         <v>970</v>
       </c>
-      <c r="F18" s="38" t="s">
+      <c r="H18" s="38" t="s">
         <v>971</v>
       </c>
-      <c r="G18" s="38" t="s">
+      <c r="I18" s="38" t="s">
         <v>972</v>
       </c>
-      <c r="H18" s="38" t="s">
+      <c r="J18" s="38" t="s">
         <v>973</v>
       </c>
-      <c r="I18" s="38" t="s">
+      <c r="K18" s="38" t="s">
         <v>974</v>
-      </c>
-      <c r="J18" s="38" t="s">
-        <v>975</v>
-      </c>
-      <c r="K18" s="38" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -34421,34 +34415,34 @@
         <v>553</v>
       </c>
       <c r="B19" s="29" t="s">
+        <v>975</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>976</v>
+      </c>
+      <c r="D19" s="29" t="s">
         <v>977</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="E19" s="29" t="s">
         <v>978</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="F19" s="29" t="s">
         <v>979</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="G19" s="29" t="s">
         <v>980</v>
       </c>
-      <c r="F19" s="29" t="s">
+      <c r="H19" s="29" t="s">
         <v>981</v>
       </c>
-      <c r="G19" s="29" t="s">
+      <c r="I19" s="29" t="s">
         <v>982</v>
       </c>
-      <c r="H19" s="29" t="s">
+      <c r="J19" s="29" t="s">
         <v>983</v>
       </c>
-      <c r="I19" s="29" t="s">
+      <c r="K19" s="29" t="s">
         <v>984</v>
-      </c>
-      <c r="J19" s="29" t="s">
-        <v>985</v>
-      </c>
-      <c r="K19" s="29" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -34456,34 +34450,34 @@
         <v>554</v>
       </c>
       <c r="B20" s="38" t="s">
+        <v>985</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>986</v>
+      </c>
+      <c r="D20" s="38" t="s">
         <v>987</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="E20" s="38" t="s">
         <v>988</v>
       </c>
-      <c r="D20" s="38" t="s">
+      <c r="F20" s="38" t="s">
         <v>989</v>
       </c>
-      <c r="E20" s="38" t="s">
+      <c r="G20" s="38" t="s">
         <v>990</v>
       </c>
-      <c r="F20" s="38" t="s">
+      <c r="H20" s="38" t="s">
         <v>991</v>
       </c>
-      <c r="G20" s="38" t="s">
+      <c r="I20" s="38" t="s">
         <v>992</v>
       </c>
-      <c r="H20" s="38" t="s">
+      <c r="J20" s="38" t="s">
         <v>993</v>
       </c>
-      <c r="I20" s="38" t="s">
+      <c r="K20" s="38" t="s">
         <v>994</v>
-      </c>
-      <c r="J20" s="38" t="s">
-        <v>995</v>
-      </c>
-      <c r="K20" s="38" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -34491,34 +34485,34 @@
         <v>555</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C21" s="29" t="s">
+        <v>995</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>862</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>996</v>
+      </c>
+      <c r="F21" s="29" t="s">
         <v>997</v>
       </c>
-      <c r="D21" s="29" t="s">
-        <v>864</v>
-      </c>
-      <c r="E21" s="29" t="s">
+      <c r="G21" s="29" t="s">
+        <v>862</v>
+      </c>
+      <c r="H21" s="29" t="s">
         <v>998</v>
       </c>
-      <c r="F21" s="29" t="s">
+      <c r="I21" s="29" t="s">
         <v>999</v>
       </c>
-      <c r="G21" s="29" t="s">
-        <v>864</v>
-      </c>
-      <c r="H21" s="29" t="s">
+      <c r="J21" s="29" t="s">
+        <v>869</v>
+      </c>
+      <c r="K21" s="29" t="s">
         <v>1000</v>
-      </c>
-      <c r="I21" s="29" t="s">
-        <v>1001</v>
-      </c>
-      <c r="J21" s="29" t="s">
-        <v>871</v>
-      </c>
-      <c r="K21" s="29" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -34526,34 +34520,34 @@
         <v>556</v>
       </c>
       <c r="B22" s="38" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D22" s="38" t="s">
         <v>1003</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="E22" s="38" t="s">
         <v>1004</v>
       </c>
-      <c r="D22" s="38" t="s">
+      <c r="F22" s="38" t="s">
         <v>1005</v>
       </c>
-      <c r="E22" s="38" t="s">
+      <c r="G22" s="38" t="s">
         <v>1006</v>
       </c>
-      <c r="F22" s="38" t="s">
+      <c r="H22" s="38" t="s">
         <v>1007</v>
       </c>
-      <c r="G22" s="38" t="s">
+      <c r="I22" s="38" t="s">
         <v>1008</v>
       </c>
-      <c r="H22" s="38" t="s">
+      <c r="J22" s="38" t="s">
         <v>1009</v>
       </c>
-      <c r="I22" s="38" t="s">
+      <c r="K22" s="38" t="s">
         <v>1010</v>
-      </c>
-      <c r="J22" s="38" t="s">
-        <v>1011</v>
-      </c>
-      <c r="K22" s="38" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -34561,34 +34555,34 @@
         <v>557</v>
       </c>
       <c r="B23" s="29" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D23" s="29" t="s">
         <v>1013</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="E23" s="29" t="s">
         <v>1014</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="F23" s="29" t="s">
         <v>1015</v>
       </c>
-      <c r="E23" s="29" t="s">
+      <c r="G23" s="29" t="s">
         <v>1016</v>
       </c>
-      <c r="F23" s="29" t="s">
+      <c r="H23" s="29" t="s">
         <v>1017</v>
       </c>
-      <c r="G23" s="29" t="s">
+      <c r="I23" s="29" t="s">
         <v>1018</v>
       </c>
-      <c r="H23" s="29" t="s">
+      <c r="J23" s="29" t="s">
         <v>1019</v>
       </c>
-      <c r="I23" s="29" t="s">
+      <c r="K23" s="29" t="s">
         <v>1020</v>
-      </c>
-      <c r="J23" s="29" t="s">
-        <v>1021</v>
-      </c>
-      <c r="K23" s="29" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -34596,34 +34590,34 @@
         <v>558</v>
       </c>
       <c r="B24" s="38" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D24" s="38" t="s">
         <v>1023</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="E24" s="38" t="s">
         <v>1024</v>
       </c>
-      <c r="D24" s="38" t="s">
+      <c r="F24" s="38" t="s">
         <v>1025</v>
       </c>
-      <c r="E24" s="38" t="s">
+      <c r="G24" s="38" t="s">
         <v>1026</v>
       </c>
-      <c r="F24" s="38" t="s">
+      <c r="H24" s="38" t="s">
         <v>1027</v>
       </c>
-      <c r="G24" s="38" t="s">
+      <c r="I24" s="38" t="s">
         <v>1028</v>
       </c>
-      <c r="H24" s="38" t="s">
+      <c r="J24" s="38" t="s">
         <v>1029</v>
       </c>
-      <c r="I24" s="38" t="s">
+      <c r="K24" s="38" t="s">
         <v>1030</v>
-      </c>
-      <c r="J24" s="38" t="s">
-        <v>1031</v>
-      </c>
-      <c r="K24" s="38" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -34631,34 +34625,34 @@
         <v>559</v>
       </c>
       <c r="B25" s="29" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D25" s="29" t="s">
         <v>1033</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="E25" s="29" t="s">
         <v>1034</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="F25" s="29" t="s">
         <v>1035</v>
       </c>
-      <c r="E25" s="29" t="s">
+      <c r="G25" s="29" t="s">
         <v>1036</v>
       </c>
-      <c r="F25" s="29" t="s">
+      <c r="H25" s="29" t="s">
         <v>1037</v>
       </c>
-      <c r="G25" s="29" t="s">
+      <c r="I25" s="29" t="s">
         <v>1038</v>
       </c>
-      <c r="H25" s="29" t="s">
+      <c r="J25" s="29" t="s">
         <v>1039</v>
       </c>
-      <c r="I25" s="29" t="s">
+      <c r="K25" s="29" t="s">
         <v>1040</v>
-      </c>
-      <c r="J25" s="29" t="s">
-        <v>1041</v>
-      </c>
-      <c r="K25" s="29" t="s">
-        <v>1042</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -34666,34 +34660,34 @@
         <v>560</v>
       </c>
       <c r="B26" s="38" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C26" s="38" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>862</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F26" s="38" t="s">
         <v>1043</v>
       </c>
-      <c r="D26" s="38" t="s">
-        <v>864</v>
-      </c>
-      <c r="E26" s="38" t="s">
+      <c r="G26" s="38" t="s">
         <v>1044</v>
       </c>
-      <c r="F26" s="38" t="s">
+      <c r="H26" s="38" t="s">
         <v>1045</v>
       </c>
-      <c r="G26" s="38" t="s">
+      <c r="I26" s="38" t="s">
         <v>1046</v>
       </c>
-      <c r="H26" s="38" t="s">
+      <c r="J26" s="38" t="s">
         <v>1047</v>
       </c>
-      <c r="I26" s="38" t="s">
+      <c r="K26" s="38" t="s">
         <v>1048</v>
-      </c>
-      <c r="J26" s="38" t="s">
-        <v>1049</v>
-      </c>
-      <c r="K26" s="38" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -34701,34 +34695,34 @@
         <v>561</v>
       </c>
       <c r="B27" s="29" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>864</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>864</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F27" s="29" t="s">
         <v>1051</v>
       </c>
-      <c r="C27" s="29" t="s">
-        <v>866</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>866</v>
-      </c>
-      <c r="E27" s="29" t="s">
+      <c r="G27" s="29" t="s">
         <v>1052</v>
       </c>
-      <c r="F27" s="29" t="s">
+      <c r="H27" s="29" t="s">
         <v>1053</v>
       </c>
-      <c r="G27" s="29" t="s">
+      <c r="I27" s="29" t="s">
         <v>1054</v>
       </c>
-      <c r="H27" s="29" t="s">
+      <c r="J27" s="29" t="s">
         <v>1055</v>
       </c>
-      <c r="I27" s="29" t="s">
+      <c r="K27" s="29" t="s">
         <v>1056</v>
-      </c>
-      <c r="J27" s="29" t="s">
-        <v>1057</v>
-      </c>
-      <c r="K27" s="29" t="s">
-        <v>1058</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -34736,34 +34730,34 @@
         <v>562</v>
       </c>
       <c r="B28" s="38" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D28" s="38" t="s">
         <v>1059</v>
       </c>
-      <c r="C28" s="38" t="s">
+      <c r="E28" s="38" t="s">
         <v>1060</v>
       </c>
-      <c r="D28" s="38" t="s">
+      <c r="F28" s="38" t="s">
         <v>1061</v>
       </c>
-      <c r="E28" s="38" t="s">
+      <c r="G28" s="38" t="s">
         <v>1062</v>
       </c>
-      <c r="F28" s="38" t="s">
+      <c r="H28" s="38" t="s">
         <v>1063</v>
       </c>
-      <c r="G28" s="38" t="s">
+      <c r="I28" s="38" t="s">
         <v>1064</v>
       </c>
-      <c r="H28" s="38" t="s">
+      <c r="J28" s="38" t="s">
         <v>1065</v>
       </c>
-      <c r="I28" s="38" t="s">
+      <c r="K28" s="38" t="s">
         <v>1066</v>
-      </c>
-      <c r="J28" s="38" t="s">
-        <v>1067</v>
-      </c>
-      <c r="K28" s="38" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -34771,49 +34765,49 @@
         <v>14</v>
       </c>
       <c r="B29" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D29" s="40" t="s">
         <v>1069</v>
       </c>
-      <c r="C29" s="40" t="s">
+      <c r="E29" s="40" t="s">
         <v>1070</v>
       </c>
-      <c r="D29" s="40" t="s">
+      <c r="F29" s="40" t="s">
         <v>1071</v>
       </c>
-      <c r="E29" s="40" t="s">
+      <c r="G29" s="40" t="s">
         <v>1072</v>
       </c>
-      <c r="F29" s="40" t="s">
+      <c r="H29" s="40" t="s">
         <v>1073</v>
       </c>
-      <c r="G29" s="40" t="s">
+      <c r="I29" s="40" t="s">
         <v>1074</v>
       </c>
-      <c r="H29" s="40" t="s">
+      <c r="J29" s="40" t="s">
         <v>1075</v>
       </c>
-      <c r="I29" s="40" t="s">
+      <c r="K29" s="40" t="s">
         <v>1076</v>
-      </c>
-      <c r="J29" s="40" t="s">
-        <v>1077</v>
-      </c>
-      <c r="K29" s="40" t="s">
-        <v>1078</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="41" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="41" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="41" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
   </sheetData>
@@ -34828,8 +34822,8 @@
   <sheetPr/>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5555555555556" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -34858,7 +34852,7 @@
         <v>568</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="3" ht="60" spans="1:3">
@@ -34869,7 +34863,7 @@
         <v>570</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -34900,7 +34894,7 @@
         <v>575</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="7" ht="24" spans="1:3">
@@ -34908,10 +34902,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -34920,7 +34914,7 @@
         <v>579</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -34931,7 +34925,7 @@
         <v>581</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="10" ht="24" spans="1:3">
@@ -34942,7 +34936,7 @@
         <v>583</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="11" ht="24" spans="1:3">
@@ -34953,7 +34947,7 @@
         <v>585</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -34964,7 +34958,7 @@
         <v>587</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="13" ht="24" spans="1:3">
@@ -34975,7 +34969,7 @@
         <v>589</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="14" ht="36" spans="1:3">
@@ -34986,7 +34980,7 @@
         <v>591</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="15" ht="24" spans="1:3">
@@ -34997,7 +34991,7 @@
         <v>593</v>
       </c>
       <c r="C15" s="84" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -35008,7 +35002,7 @@
         <v>595</v>
       </c>
       <c r="C16" s="57" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -35019,7 +35013,7 @@
         <v>597</v>
       </c>
       <c r="C17" s="57" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -35028,7 +35022,7 @@
         <v>599</v>
       </c>
       <c r="C18" s="86" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -35059,7 +35053,7 @@
         <v>604</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
   </sheetData>
@@ -35675,7 +35669,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="25" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -35712,28 +35706,28 @@
         <v>538</v>
       </c>
       <c r="B4" s="38" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D4" s="38" t="s">
         <v>1099</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="E4" s="38" t="s">
         <v>1100</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="F4" s="38" t="s">
         <v>1101</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="G4" s="38" t="s">
         <v>1102</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="H4" s="38" t="s">
         <v>1103</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="I4" s="38" t="s">
         <v>1104</v>
-      </c>
-      <c r="H4" s="38" t="s">
-        <v>1105</v>
-      </c>
-      <c r="I4" s="38" t="s">
-        <v>1106</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -35750,16 +35744,16 @@
         <v>980</v>
       </c>
       <c r="E5" s="29" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G5" s="29" t="s">
         <v>1107</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="H5" s="29" t="s">
         <v>1108</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>1109</v>
-      </c>
-      <c r="H5" s="29" t="s">
-        <v>1110</v>
       </c>
       <c r="I5" s="29">
         <v>893</v>
@@ -35770,25 +35764,25 @@
         <v>543</v>
       </c>
       <c r="B6" s="38" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D6" s="38" t="s">
         <v>1111</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="E6" s="38" t="s">
         <v>1112</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="F6" s="38" t="s">
         <v>1113</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>1114</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>1115</v>
       </c>
       <c r="G6" s="38">
         <v>600</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="I6" s="38">
         <v>384</v>
@@ -35799,28 +35793,28 @@
         <v>545</v>
       </c>
       <c r="B7" s="29" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D7" s="29" t="s">
         <v>1117</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="E7" s="29" t="s">
         <v>1118</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="F7" s="29" t="s">
         <v>1119</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="G7" s="29" t="s">
         <v>1120</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="H7" s="29" t="s">
         <v>1121</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="I7" s="29" t="s">
         <v>1122</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>1123</v>
-      </c>
-      <c r="I7" s="29" t="s">
-        <v>1124</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -35857,28 +35851,28 @@
         <v>547</v>
       </c>
       <c r="B9" s="29" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D9" s="29" t="s">
         <v>1125</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="E9" s="29" t="s">
         <v>1126</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="F9" s="29" t="s">
         <v>1127</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="G9" s="29" t="s">
         <v>1128</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="H9" s="29" t="s">
         <v>1129</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="I9" s="29" t="s">
         <v>1130</v>
-      </c>
-      <c r="H9" s="29" t="s">
-        <v>1131</v>
-      </c>
-      <c r="I9" s="29" t="s">
-        <v>1132</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -35886,28 +35880,28 @@
         <v>549</v>
       </c>
       <c r="B10" s="38" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D10" s="38" t="s">
         <v>1133</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="E10" s="38" t="s">
         <v>1134</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="F10" s="38" t="s">
         <v>1135</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="G10" s="38" t="s">
         <v>1136</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="H10" s="38" t="s">
         <v>1137</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="I10" s="38" t="s">
         <v>1138</v>
-      </c>
-      <c r="H10" s="38" t="s">
-        <v>1139</v>
-      </c>
-      <c r="I10" s="38" t="s">
-        <v>1140</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -35944,28 +35938,28 @@
         <v>553</v>
       </c>
       <c r="B12" s="38" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D12" s="38" t="s">
         <v>1141</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="E12" s="38" t="s">
         <v>1142</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="F12" s="38" t="s">
         <v>1143</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="G12" s="38" t="s">
         <v>1144</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="H12" s="38" t="s">
         <v>1145</v>
       </c>
-      <c r="G12" s="38" t="s">
+      <c r="I12" s="38" t="s">
         <v>1146</v>
-      </c>
-      <c r="H12" s="38" t="s">
-        <v>1147</v>
-      </c>
-      <c r="I12" s="38" t="s">
-        <v>1148</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -35973,28 +35967,28 @@
         <v>554</v>
       </c>
       <c r="B13" s="29" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D13" s="29" t="s">
         <v>1149</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="E13" s="29" t="s">
         <v>1150</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="F13" s="29" t="s">
         <v>1151</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="G13" s="29" t="s">
         <v>1152</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="H13" s="29" t="s">
         <v>1153</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="I13" s="29" t="s">
         <v>1154</v>
-      </c>
-      <c r="H13" s="29" t="s">
-        <v>1155</v>
-      </c>
-      <c r="I13" s="29" t="s">
-        <v>1156</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -36002,28 +35996,28 @@
         <v>556</v>
       </c>
       <c r="B14" s="38" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D14" s="38" t="s">
         <v>1157</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="E14" s="38" t="s">
         <v>1158</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="F14" s="38" t="s">
         <v>1159</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="G14" s="38" t="s">
         <v>1160</v>
       </c>
-      <c r="F14" s="38" t="s">
+      <c r="H14" s="38" t="s">
         <v>1161</v>
       </c>
-      <c r="G14" s="38" t="s">
+      <c r="I14" s="38" t="s">
         <v>1162</v>
-      </c>
-      <c r="H14" s="38" t="s">
-        <v>1163</v>
-      </c>
-      <c r="I14" s="38" t="s">
-        <v>1164</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -36060,28 +36054,28 @@
         <v>558</v>
       </c>
       <c r="B16" s="38" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D16" s="38" t="s">
         <v>1165</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="E16" s="38" t="s">
         <v>1166</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="F16" s="38" t="s">
         <v>1167</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="G16" s="38" t="s">
         <v>1168</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="H16" s="38" t="s">
         <v>1169</v>
       </c>
-      <c r="G16" s="38" t="s">
+      <c r="I16" s="38" t="s">
         <v>1170</v>
-      </c>
-      <c r="H16" s="38" t="s">
-        <v>1171</v>
-      </c>
-      <c r="I16" s="38" t="s">
-        <v>1172</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -36089,28 +36083,28 @@
         <v>559</v>
       </c>
       <c r="B17" s="29" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D17" s="29" t="s">
         <v>1173</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="E17" s="29" t="s">
         <v>1174</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="F17" s="29" t="s">
         <v>1175</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="G17" s="29" t="s">
         <v>1176</v>
       </c>
-      <c r="F17" s="29" t="s">
+      <c r="H17" s="29" t="s">
         <v>1177</v>
       </c>
-      <c r="G17" s="29" t="s">
+      <c r="I17" s="29" t="s">
         <v>1178</v>
-      </c>
-      <c r="H17" s="29" t="s">
-        <v>1179</v>
-      </c>
-      <c r="I17" s="29" t="s">
-        <v>1180</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -36118,28 +36112,28 @@
         <v>562</v>
       </c>
       <c r="B18" s="38" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D18" s="38" t="s">
         <v>1181</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="E18" s="38" t="s">
         <v>1182</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="F18" s="38" t="s">
         <v>1183</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="G18" s="38" t="s">
         <v>1184</v>
       </c>
-      <c r="F18" s="38" t="s">
+      <c r="H18" s="38" t="s">
         <v>1185</v>
       </c>
-      <c r="G18" s="38" t="s">
+      <c r="I18" s="38" t="s">
         <v>1186</v>
-      </c>
-      <c r="H18" s="38" t="s">
-        <v>1187</v>
-      </c>
-      <c r="I18" s="38" t="s">
-        <v>1188</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -36147,48 +36141,48 @@
         <v>14</v>
       </c>
       <c r="B19" s="40" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D19" s="40" t="s">
         <v>1189</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="E19" s="40" t="s">
         <v>1190</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="F19" s="40" t="s">
         <v>1191</v>
       </c>
-      <c r="E19" s="40" t="s">
+      <c r="G19" s="40" t="s">
         <v>1192</v>
       </c>
-      <c r="F19" s="40" t="s">
+      <c r="H19" s="40" t="s">
         <v>1193</v>
       </c>
-      <c r="G19" s="40" t="s">
+      <c r="I19" s="40" t="s">
         <v>1194</v>
-      </c>
-      <c r="H19" s="40" t="s">
-        <v>1195</v>
-      </c>
-      <c r="I19" s="40" t="s">
-        <v>1196</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="41" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="41" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="41" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="41" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
   </sheetData>
@@ -36233,7 +36227,7 @@
         <v>568</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="3" ht="48" spans="1:3">
@@ -36244,7 +36238,7 @@
         <v>570</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -36266,7 +36260,7 @@
         <v>573</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="6" ht="84" spans="1:3">
@@ -36277,7 +36271,7 @@
         <v>575</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -36285,10 +36279,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -36297,7 +36291,7 @@
         <v>579</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -36308,7 +36302,7 @@
         <v>581</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="10" ht="24" spans="1:3">
@@ -36319,7 +36313,7 @@
         <v>583</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="11" ht="24" spans="1:3">
@@ -36330,7 +36324,7 @@
         <v>585</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -36341,7 +36335,7 @@
         <v>587</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="13" ht="24" spans="1:3">
@@ -36352,7 +36346,7 @@
         <v>589</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="14" ht="36" spans="1:3">
@@ -36363,7 +36357,7 @@
         <v>591</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="15" ht="24" spans="1:3">
@@ -36374,7 +36368,7 @@
         <v>593</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -36396,7 +36390,7 @@
         <v>597</v>
       </c>
       <c r="C17" s="57" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -36405,7 +36399,7 @@
         <v>599</v>
       </c>
       <c r="C18" s="61" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -36436,7 +36430,7 @@
         <v>604</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
   </sheetData>
@@ -36466,21 +36460,21 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="25" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="3" ht="30.6" spans="1:4">
       <c r="A3" s="77" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B3" s="78" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C3" s="78" t="s">
         <v>1215</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="D3" s="78" t="s">
         <v>1216</v>
-      </c>
-      <c r="C3" s="78" t="s">
-        <v>1217</v>
-      </c>
-      <c r="D3" s="78" t="s">
-        <v>1218</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -36488,13 +36482,13 @@
         <v>2014</v>
       </c>
       <c r="B4" s="38" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D4" s="38" t="s">
         <v>1219</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>1220</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>1221</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -36502,13 +36496,13 @@
         <v>2015</v>
       </c>
       <c r="B5" s="29" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D5" s="29" t="s">
         <v>1222</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>1223</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>1224</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -36516,13 +36510,13 @@
         <v>2016</v>
       </c>
       <c r="B6" s="38" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D6" s="38" t="s">
         <v>1225</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>1226</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -36530,13 +36524,13 @@
         <v>2017</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -36544,13 +36538,13 @@
         <v>2018</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -36558,13 +36552,13 @@
         <v>2019</v>
       </c>
       <c r="B9" s="29" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D9" s="29" t="s">
         <v>1232</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>1233</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>1234</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -36572,13 +36566,13 @@
         <v>2020</v>
       </c>
       <c r="B10" s="38" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D10" s="38" t="s">
         <v>1235</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>1236</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>1237</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -36586,28 +36580,28 @@
         <v>2021</v>
       </c>
       <c r="B11" s="80" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C11" s="80" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D11" s="80" t="s">
         <v>1238</v>
-      </c>
-      <c r="C11" s="80" t="s">
-        <v>1239</v>
-      </c>
-      <c r="D11" s="80" t="s">
-        <v>1240</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="41" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="41" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="41" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
   </sheetData>
@@ -36641,7 +36635,7 @@
         <v>566</v>
       </c>
       <c r="C1" s="73" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -36652,7 +36646,7 @@
         <v>568</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="3" ht="72" spans="1:3">
@@ -36663,7 +36657,7 @@
         <v>570</v>
       </c>
       <c r="C3" s="74" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -36685,7 +36679,7 @@
         <v>573</v>
       </c>
       <c r="C5" s="76" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="6" ht="96" spans="1:3">
@@ -36696,7 +36690,7 @@
         <v>575</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -36704,10 +36698,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -36716,7 +36710,7 @@
         <v>579</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -36727,7 +36721,7 @@
         <v>581</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="10" ht="24" spans="1:3">
@@ -36738,7 +36732,7 @@
         <v>583</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="11" ht="24" spans="1:3">
@@ -36749,7 +36743,7 @@
         <v>585</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -36760,7 +36754,7 @@
         <v>587</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -36782,7 +36776,7 @@
         <v>591</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="15" ht="24" spans="1:3">
@@ -36793,7 +36787,7 @@
         <v>593</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -36815,7 +36809,7 @@
         <v>597</v>
       </c>
       <c r="C17" s="57" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -36824,7 +36818,7 @@
         <v>599</v>
       </c>
       <c r="C18" s="61" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -36855,7 +36849,7 @@
         <v>604</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
     </row>
   </sheetData>
@@ -36889,12 +36883,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="68" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="36" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="B3" s="27">
         <v>2014</v>
@@ -36923,36 +36917,36 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="69" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>1250</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="D4" s="38" t="s">
         <v>1251</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="E4" s="38" t="s">
         <v>1252</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="F4" s="38" t="s">
         <v>1253</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="G4" s="38" t="s">
         <v>1254</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="H4" s="38" t="s">
         <v>1255</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="I4" s="38" t="s">
         <v>1256</v>
-      </c>
-      <c r="H4" s="38" t="s">
-        <v>1257</v>
-      </c>
-      <c r="I4" s="38" t="s">
-        <v>1258</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="70" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="B5" s="29">
         <v>808</v>
@@ -36961,7 +36955,7 @@
         <v>753</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="E5" s="29">
         <v>929</v>
@@ -36973,7 +36967,7 @@
         <v>562</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="I5" s="29">
         <v>485</v>
@@ -36981,7 +36975,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="69" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="B6" s="38">
         <v>7</v>
@@ -37010,65 +37004,65 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="70" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C7" s="29" t="s">
         <v>1263</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="D7" s="29" t="s">
         <v>1264</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="E7" s="29" t="s">
         <v>1265</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="F7" s="29" t="s">
         <v>1266</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="G7" s="29" t="s">
         <v>1267</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="H7" s="29" t="s">
         <v>1268</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="I7" s="29" t="s">
         <v>1269</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>1270</v>
-      </c>
-      <c r="I7" s="29" t="s">
-        <v>1271</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="69" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C8" s="38" t="s">
         <v>1272</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="D8" s="38" t="s">
         <v>1273</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="E8" s="38" t="s">
         <v>1274</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="F8" s="38" t="s">
         <v>1275</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="G8" s="38" t="s">
         <v>1276</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="H8" s="38" t="s">
         <v>1277</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="I8" s="38" t="s">
         <v>1278</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>1279</v>
-      </c>
-      <c r="I8" s="38" t="s">
-        <v>1280</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="70" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="B9" s="29">
         <v>259</v>
@@ -37097,123 +37091,123 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="69" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C10" s="38" t="s">
         <v>1282</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="D10" s="38" t="s">
         <v>1283</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="E10" s="38" t="s">
         <v>1284</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="F10" s="38" t="s">
         <v>1285</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="G10" s="38" t="s">
         <v>1286</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="H10" s="38" t="s">
         <v>1287</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="I10" s="38" t="s">
         <v>1288</v>
-      </c>
-      <c r="H10" s="38" t="s">
-        <v>1289</v>
-      </c>
-      <c r="I10" s="38" t="s">
-        <v>1290</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="70" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="B11" s="29">
         <v>822</v>
       </c>
       <c r="C11" s="29" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E11" s="29" t="s">
         <v>1292</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="F11" s="29" t="s">
         <v>1293</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="G11" s="29" t="s">
         <v>1294</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="H11" s="29" t="s">
         <v>1295</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="I11" s="29" t="s">
         <v>1296</v>
-      </c>
-      <c r="H11" s="29" t="s">
-        <v>1297</v>
-      </c>
-      <c r="I11" s="29" t="s">
-        <v>1298</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="69" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C12" s="38" t="s">
         <v>1299</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="D12" s="38" t="s">
         <v>1300</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="E12" s="38" t="s">
         <v>1301</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="F12" s="38" t="s">
         <v>1302</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="G12" s="38" t="s">
         <v>1303</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="H12" s="38" t="s">
         <v>1304</v>
       </c>
-      <c r="G12" s="38" t="s">
+      <c r="I12" s="38" t="s">
         <v>1305</v>
-      </c>
-      <c r="H12" s="38" t="s">
-        <v>1306</v>
-      </c>
-      <c r="I12" s="38" t="s">
-        <v>1307</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="70" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C13" s="29" t="s">
         <v>1308</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="D13" s="29" t="s">
         <v>1309</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="E13" s="29" t="s">
         <v>1310</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="F13" s="29" t="s">
         <v>1311</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="G13" s="29" t="s">
         <v>1312</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="H13" s="29" t="s">
         <v>1313</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="I13" s="29" t="s">
         <v>1314</v>
-      </c>
-      <c r="H13" s="29" t="s">
-        <v>1315</v>
-      </c>
-      <c r="I13" s="29" t="s">
-        <v>1316</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="69" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="B14" s="38">
         <v>313</v>
@@ -37242,7 +37236,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="70" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="B15" s="29">
         <v>35</v>
@@ -37271,65 +37265,65 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="69" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C16" s="38" t="s">
         <v>1319</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="D16" s="38" t="s">
         <v>1320</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="E16" s="38" t="s">
         <v>1321</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="F16" s="38" t="s">
         <v>1322</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="G16" s="38" t="s">
         <v>1323</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="H16" s="38" t="s">
         <v>1324</v>
       </c>
-      <c r="G16" s="38" t="s">
+      <c r="I16" s="38" t="s">
         <v>1325</v>
-      </c>
-      <c r="H16" s="38" t="s">
-        <v>1326</v>
-      </c>
-      <c r="I16" s="38" t="s">
-        <v>1327</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="70" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C17" s="29" t="s">
         <v>1328</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="D17" s="29" t="s">
         <v>1329</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="E17" s="29" t="s">
         <v>1330</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="F17" s="29" t="s">
         <v>1331</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="G17" s="29" t="s">
         <v>1332</v>
       </c>
-      <c r="F17" s="29" t="s">
+      <c r="H17" s="29" t="s">
         <v>1333</v>
       </c>
-      <c r="G17" s="29" t="s">
+      <c r="I17" s="29" t="s">
         <v>1334</v>
-      </c>
-      <c r="H17" s="29" t="s">
-        <v>1335</v>
-      </c>
-      <c r="I17" s="29" t="s">
-        <v>1336</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="69" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="B18" s="38">
         <v>494</v>
@@ -37358,31 +37352,31 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="70" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C19" s="29" t="s">
         <v>1338</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="D19" s="29" t="s">
         <v>1339</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="E19" s="29" t="s">
         <v>1340</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="F19" s="29" t="s">
         <v>1341</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="G19" s="29" t="s">
         <v>1342</v>
       </c>
-      <c r="F19" s="29" t="s">
+      <c r="H19" s="29" t="s">
         <v>1343</v>
       </c>
-      <c r="G19" s="29" t="s">
+      <c r="I19" s="29" t="s">
         <v>1344</v>
-      </c>
-      <c r="H19" s="29" t="s">
-        <v>1345</v>
-      </c>
-      <c r="I19" s="29" t="s">
-        <v>1346</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -37390,43 +37384,43 @@
         <v>14</v>
       </c>
       <c r="B20" s="72" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C20" s="72" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D20" s="72" t="s">
         <v>1189</v>
       </c>
-      <c r="C20" s="72" t="s">
+      <c r="E20" s="72" t="s">
         <v>1190</v>
       </c>
-      <c r="D20" s="72" t="s">
+      <c r="F20" s="72" t="s">
         <v>1191</v>
       </c>
-      <c r="E20" s="72" t="s">
+      <c r="G20" s="72" t="s">
         <v>1192</v>
       </c>
-      <c r="F20" s="72" t="s">
+      <c r="H20" s="72" t="s">
         <v>1193</v>
       </c>
-      <c r="G20" s="72" t="s">
+      <c r="I20" s="72" t="s">
         <v>1194</v>
-      </c>
-      <c r="H20" s="72" t="s">
-        <v>1195</v>
-      </c>
-      <c r="I20" s="72" t="s">
-        <v>1196</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="41" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="41" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="41" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
   </sheetData>
@@ -37460,7 +37454,7 @@
         <v>566</v>
       </c>
       <c r="C1" s="43" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -37471,7 +37465,7 @@
         <v>568</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="3" ht="36" spans="1:3">
@@ -37482,7 +37476,7 @@
         <v>570</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -37504,7 +37498,7 @@
         <v>573</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="6" ht="60" spans="1:3">
@@ -37515,7 +37509,7 @@
         <v>575</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -37523,10 +37517,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -37535,7 +37529,7 @@
         <v>579</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -37546,7 +37540,7 @@
         <v>581</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="10" ht="24" spans="1:3">
@@ -37557,7 +37551,7 @@
         <v>583</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="11" ht="24" spans="1:3">
@@ -37568,7 +37562,7 @@
         <v>585</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -37579,7 +37573,7 @@
         <v>587</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -37601,7 +37595,7 @@
         <v>591</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="15" ht="24" spans="1:3">
@@ -37612,7 +37606,7 @@
         <v>593</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -37634,7 +37628,7 @@
         <v>597</v>
       </c>
       <c r="C17" s="57" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -37643,7 +37637,7 @@
         <v>599</v>
       </c>
       <c r="C18" s="61" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -37674,7 +37668,7 @@
         <v>604</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
     </row>
   </sheetData>
@@ -37718,25 +37712,25 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="25" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="63" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="B3" s="63" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="C3" s="63"/>
       <c r="D3" s="63"/>
       <c r="E3" s="63"/>
       <c r="F3" s="64" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="G3" s="64"/>
       <c r="H3" s="63" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="I3" s="63"/>
       <c r="J3" s="63"/>
@@ -37744,136 +37738,136 @@
       <c r="L3" s="63"/>
       <c r="M3" s="63"/>
       <c r="N3" s="63" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="O3" s="63"/>
       <c r="P3" s="63"/>
       <c r="Q3" s="63"/>
       <c r="R3" s="63" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="S3" s="63"/>
       <c r="T3" s="63"/>
       <c r="U3" s="63"/>
       <c r="V3" s="66" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="W3" s="67"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:23">
       <c r="A4" s="63"/>
       <c r="B4" s="64" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="C4" s="64"/>
       <c r="D4" s="64" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="E4" s="64"/>
       <c r="F4" s="64" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="G4" s="64"/>
       <c r="H4" s="64" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="I4" s="64"/>
       <c r="J4" s="64" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="K4" s="64"/>
       <c r="L4" s="64" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="M4" s="64"/>
       <c r="N4" s="64" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="O4" s="64"/>
       <c r="P4" s="64" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="Q4" s="64"/>
       <c r="R4" s="64" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="S4" s="64"/>
       <c r="T4" s="64" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="U4" s="64"/>
       <c r="V4" s="64" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="W4" s="64"/>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="63"/>
       <c r="B5" s="64" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="C5" s="64" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="D5" s="64" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="E5" s="64" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="F5" s="64" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="G5" s="64" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="H5" s="64" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="I5" s="64" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="J5" s="64" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="K5" s="64" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="L5" s="64" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="M5" s="64" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="N5" s="64" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="O5" s="64" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="P5" s="64" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="Q5" s="64" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="R5" s="64" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="S5" s="64" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="T5" s="64" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="U5" s="64" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="V5" s="64" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="W5" s="64" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="6" s="62" customFormat="1" spans="1:23">
@@ -37881,70 +37875,70 @@
         <v>2013</v>
       </c>
       <c r="B6" s="65" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D6" s="65" t="s">
         <v>1373</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="E6" s="65" t="s">
         <v>1374</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="F6" s="65" t="s">
         <v>1375</v>
       </c>
-      <c r="E6" s="65" t="s">
+      <c r="G6" s="65" t="s">
         <v>1376</v>
       </c>
-      <c r="F6" s="65" t="s">
+      <c r="H6" s="65" t="s">
         <v>1377</v>
       </c>
-      <c r="G6" s="65" t="s">
+      <c r="I6" s="65" t="s">
         <v>1378</v>
       </c>
-      <c r="H6" s="65" t="s">
+      <c r="J6" s="65" t="s">
         <v>1379</v>
       </c>
-      <c r="I6" s="65" t="s">
+      <c r="K6" s="65" t="s">
         <v>1380</v>
       </c>
-      <c r="J6" s="65" t="s">
+      <c r="L6" s="65" t="s">
         <v>1381</v>
       </c>
-      <c r="K6" s="65" t="s">
+      <c r="M6" s="65" t="s">
         <v>1382</v>
       </c>
-      <c r="L6" s="65" t="s">
+      <c r="N6" s="65" t="s">
         <v>1383</v>
       </c>
-      <c r="M6" s="65" t="s">
+      <c r="O6" s="65" t="s">
         <v>1384</v>
       </c>
-      <c r="N6" s="65" t="s">
+      <c r="P6" s="65" t="s">
         <v>1385</v>
       </c>
-      <c r="O6" s="65" t="s">
+      <c r="Q6" s="65" t="s">
         <v>1386</v>
       </c>
-      <c r="P6" s="65" t="s">
+      <c r="R6" s="65" t="s">
         <v>1387</v>
       </c>
-      <c r="Q6" s="65" t="s">
+      <c r="S6" s="65" t="s">
+        <v>1386</v>
+      </c>
+      <c r="T6" s="65" t="s">
         <v>1388</v>
       </c>
-      <c r="R6" s="65" t="s">
+      <c r="U6" s="65" t="s">
+        <v>1386</v>
+      </c>
+      <c r="V6" s="65" t="s">
         <v>1389</v>
       </c>
-      <c r="S6" s="65" t="s">
-        <v>1388</v>
-      </c>
-      <c r="T6" s="65" t="s">
+      <c r="W6" s="65" t="s">
         <v>1390</v>
-      </c>
-      <c r="U6" s="65" t="s">
-        <v>1388</v>
-      </c>
-      <c r="V6" s="65" t="s">
-        <v>1391</v>
-      </c>
-      <c r="W6" s="65" t="s">
-        <v>1392</v>
       </c>
     </row>
     <row r="7" s="62" customFormat="1" spans="1:23">
@@ -37952,70 +37946,70 @@
         <v>2016</v>
       </c>
       <c r="B7" s="65" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D7" s="65" t="s">
         <v>1393</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="E7" s="65" t="s">
+        <v>1374</v>
+      </c>
+      <c r="F7" s="65" t="s">
         <v>1394</v>
       </c>
-      <c r="D7" s="65" t="s">
+      <c r="G7" s="65" t="s">
         <v>1395</v>
       </c>
-      <c r="E7" s="65" t="s">
-        <v>1376</v>
-      </c>
-      <c r="F7" s="65" t="s">
+      <c r="H7" s="65" t="s">
         <v>1396</v>
       </c>
-      <c r="G7" s="65" t="s">
+      <c r="I7" s="65" t="s">
         <v>1397</v>
       </c>
-      <c r="H7" s="65" t="s">
+      <c r="J7" s="65" t="s">
         <v>1398</v>
       </c>
-      <c r="I7" s="65" t="s">
+      <c r="K7" s="65" t="s">
+        <v>1380</v>
+      </c>
+      <c r="L7" s="65" t="s">
+        <v>1381</v>
+      </c>
+      <c r="M7" s="65" t="s">
+        <v>1382</v>
+      </c>
+      <c r="N7" s="65" t="s">
         <v>1399</v>
       </c>
-      <c r="J7" s="65" t="s">
+      <c r="O7" s="65" t="s">
+        <v>1384</v>
+      </c>
+      <c r="P7" s="65" t="s">
         <v>1400</v>
       </c>
-      <c r="K7" s="65" t="s">
-        <v>1382</v>
-      </c>
-      <c r="L7" s="65" t="s">
-        <v>1383</v>
-      </c>
-      <c r="M7" s="65" t="s">
-        <v>1384</v>
-      </c>
-      <c r="N7" s="65" t="s">
+      <c r="Q7" s="65" t="s">
+        <v>1386</v>
+      </c>
+      <c r="R7" s="65" t="s">
         <v>1401</v>
       </c>
-      <c r="O7" s="65" t="s">
+      <c r="S7" s="65" t="s">
         <v>1386</v>
       </c>
-      <c r="P7" s="65" t="s">
+      <c r="T7" s="65" t="s">
         <v>1402</v>
       </c>
-      <c r="Q7" s="65" t="s">
-        <v>1388</v>
-      </c>
-      <c r="R7" s="65" t="s">
+      <c r="U7" s="65" t="s">
+        <v>1386</v>
+      </c>
+      <c r="V7" s="65" t="s">
         <v>1403</v>
       </c>
-      <c r="S7" s="65" t="s">
-        <v>1388</v>
-      </c>
-      <c r="T7" s="65" t="s">
-        <v>1404</v>
-      </c>
-      <c r="U7" s="65" t="s">
-        <v>1388</v>
-      </c>
-      <c r="V7" s="65" t="s">
-        <v>1405</v>
-      </c>
       <c r="W7" s="65" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="8" s="62" customFormat="1" spans="1:23">
@@ -38023,70 +38017,70 @@
         <v>2018</v>
       </c>
       <c r="B8" s="65" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D8" s="65" t="s">
         <v>1406</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="E8" s="65" t="s">
+        <v>1374</v>
+      </c>
+      <c r="F8" s="65" t="s">
         <v>1407</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="G8" s="65" t="s">
         <v>1408</v>
       </c>
-      <c r="E8" s="65" t="s">
-        <v>1376</v>
-      </c>
-      <c r="F8" s="65" t="s">
+      <c r="H8" s="65" t="s">
         <v>1409</v>
       </c>
-      <c r="G8" s="65" t="s">
+      <c r="I8" s="65" t="s">
         <v>1410</v>
       </c>
-      <c r="H8" s="65" t="s">
+      <c r="J8" s="65" t="s">
         <v>1411</v>
       </c>
-      <c r="I8" s="65" t="s">
+      <c r="K8" s="65" t="s">
         <v>1412</v>
       </c>
-      <c r="J8" s="65" t="s">
+      <c r="L8" s="65" t="s">
+        <v>1381</v>
+      </c>
+      <c r="M8" s="65" t="s">
+        <v>1382</v>
+      </c>
+      <c r="N8" s="65" t="s">
         <v>1413</v>
       </c>
-      <c r="K8" s="65" t="s">
+      <c r="O8" s="65" t="s">
+        <v>1384</v>
+      </c>
+      <c r="P8" s="65" t="s">
         <v>1414</v>
       </c>
-      <c r="L8" s="65" t="s">
-        <v>1383</v>
-      </c>
-      <c r="M8" s="65" t="s">
-        <v>1384</v>
-      </c>
-      <c r="N8" s="65" t="s">
+      <c r="Q8" s="65" t="s">
+        <v>1386</v>
+      </c>
+      <c r="R8" s="65" t="s">
         <v>1415</v>
       </c>
-      <c r="O8" s="65" t="s">
+      <c r="S8" s="65" t="s">
+        <v>1416</v>
+      </c>
+      <c r="T8" s="65" t="s">
+        <v>1417</v>
+      </c>
+      <c r="U8" s="65" t="s">
         <v>1386</v>
       </c>
-      <c r="P8" s="65" t="s">
-        <v>1416</v>
-      </c>
-      <c r="Q8" s="65" t="s">
-        <v>1388</v>
-      </c>
-      <c r="R8" s="65" t="s">
-        <v>1417</v>
-      </c>
-      <c r="S8" s="65" t="s">
+      <c r="V8" s="65" t="s">
         <v>1418</v>
       </c>
-      <c r="T8" s="65" t="s">
+      <c r="W8" s="65" t="s">
         <v>1419</v>
-      </c>
-      <c r="U8" s="65" t="s">
-        <v>1388</v>
-      </c>
-      <c r="V8" s="65" t="s">
-        <v>1420</v>
-      </c>
-      <c r="W8" s="65" t="s">
-        <v>1421</v>
       </c>
     </row>
     <row r="9" s="62" customFormat="1" spans="1:23">
@@ -38094,80 +38088,80 @@
         <v>2020</v>
       </c>
       <c r="B9" s="65" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D9" s="65" t="s">
         <v>1422</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="E9" s="65" t="s">
+        <v>1374</v>
+      </c>
+      <c r="F9" s="65" t="s">
         <v>1423</v>
       </c>
-      <c r="D9" s="65" t="s">
+      <c r="G9" s="65" t="s">
+        <v>1408</v>
+      </c>
+      <c r="H9" s="65" t="s">
         <v>1424</v>
       </c>
-      <c r="E9" s="65" t="s">
-        <v>1376</v>
-      </c>
-      <c r="F9" s="65" t="s">
+      <c r="I9" s="65" t="s">
         <v>1425</v>
       </c>
-      <c r="G9" s="65" t="s">
-        <v>1410</v>
-      </c>
-      <c r="H9" s="65" t="s">
+      <c r="J9" s="65" t="s">
         <v>1426</v>
       </c>
-      <c r="I9" s="65" t="s">
+      <c r="K9" s="65" t="s">
         <v>1427</v>
       </c>
-      <c r="J9" s="65" t="s">
+      <c r="L9" s="65" t="s">
+        <v>1381</v>
+      </c>
+      <c r="M9" s="65" t="s">
+        <v>1382</v>
+      </c>
+      <c r="N9" s="65" t="s">
         <v>1428</v>
       </c>
-      <c r="K9" s="65" t="s">
+      <c r="O9" s="65" t="s">
         <v>1429</v>
       </c>
-      <c r="L9" s="65" t="s">
-        <v>1383</v>
-      </c>
-      <c r="M9" s="65" t="s">
-        <v>1384</v>
-      </c>
-      <c r="N9" s="65" t="s">
+      <c r="P9" s="65" t="s">
         <v>1430</v>
       </c>
-      <c r="O9" s="65" t="s">
+      <c r="Q9" s="65" t="s">
+        <v>1386</v>
+      </c>
+      <c r="R9" s="65" t="s">
         <v>1431</v>
       </c>
-      <c r="P9" s="65" t="s">
+      <c r="S9" s="65" t="s">
+        <v>1416</v>
+      </c>
+      <c r="T9" s="65" t="s">
         <v>1432</v>
       </c>
-      <c r="Q9" s="65" t="s">
-        <v>1388</v>
-      </c>
-      <c r="R9" s="65" t="s">
+      <c r="U9" s="65" t="s">
+        <v>1386</v>
+      </c>
+      <c r="V9" s="65" t="s">
         <v>1433</v>
       </c>
-      <c r="S9" s="65" t="s">
-        <v>1418</v>
-      </c>
-      <c r="T9" s="65" t="s">
+      <c r="W9" s="65" t="s">
         <v>1434</v>
-      </c>
-      <c r="U9" s="65" t="s">
-        <v>1388</v>
-      </c>
-      <c r="V9" s="65" t="s">
-        <v>1435</v>
-      </c>
-      <c r="W9" s="65" t="s">
-        <v>1436</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="41" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="41" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
   </sheetData>
@@ -38221,7 +38215,7 @@
         <v>566</v>
       </c>
       <c r="C1" s="43" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="2" ht="24" spans="1:3">
@@ -38232,7 +38226,7 @@
         <v>568</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="3" ht="72" spans="1:3">
@@ -38243,7 +38237,7 @@
         <v>570</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -38265,7 +38259,7 @@
         <v>573</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="6" ht="60" spans="1:3">
@@ -38276,7 +38270,7 @@
         <v>575</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -38284,10 +38278,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -38296,7 +38290,7 @@
         <v>579</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -38307,7 +38301,7 @@
         <v>581</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="10" ht="24" spans="1:3">
@@ -38318,7 +38312,7 @@
         <v>583</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="11" ht="24" spans="1:3">
@@ -38329,7 +38323,7 @@
         <v>585</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -38340,7 +38334,7 @@
         <v>587</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -38362,7 +38356,7 @@
         <v>591</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="15" ht="24" spans="1:3">
@@ -38373,7 +38367,7 @@
         <v>593</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -38395,7 +38389,7 @@
         <v>597</v>
       </c>
       <c r="C17" s="57" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -38404,7 +38398,7 @@
         <v>599</v>
       </c>
       <c r="C18" s="61" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -38435,7 +38429,7 @@
         <v>604</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
     </row>
   </sheetData>
@@ -38465,7 +38459,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="25" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -38502,28 +38496,28 @@
         <v>538</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="H4" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="I4" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -38531,28 +38525,28 @@
         <v>539</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="H5" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="I5" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -38560,28 +38554,28 @@
         <v>541</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="G6" s="38" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="I6" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -38589,28 +38583,28 @@
         <v>543</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="G7" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="I7" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -38618,28 +38612,28 @@
         <v>545</v>
       </c>
       <c r="B8" s="38" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C8" s="38" t="s">
         <v>1446</v>
       </c>
-      <c r="C8" s="38" t="s">
-        <v>1448</v>
-      </c>
       <c r="D8" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="F8" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="G8" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="I8" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -38647,57 +38641,57 @@
         <v>547</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="H9" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="I9" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="37" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="H10" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="I10" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -38705,28 +38699,28 @@
         <v>549</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="F11" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="I11" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -38734,28 +38728,28 @@
         <v>550</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="F12" s="38" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G12" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="I12" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -38763,28 +38757,28 @@
         <v>551</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="F13" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="G13" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="I13" s="29" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -38792,28 +38786,28 @@
         <v>552</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -38821,57 +38815,57 @@
         <v>553</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="F15" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="G15" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="37" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="G16" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="H16" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -38879,28 +38873,28 @@
         <v>555</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="F17" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="G17" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="I17" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -38908,28 +38902,28 @@
         <v>556</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="G18" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="H18" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="I18" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -38937,28 +38931,28 @@
         <v>557</v>
       </c>
       <c r="B19" s="29" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>706</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>1454</v>
+      </c>
+      <c r="E19" s="29" t="s">
         <v>1455</v>
       </c>
-      <c r="C19" s="29" t="s">
-        <v>708</v>
-      </c>
-      <c r="D19" s="29" t="s">
+      <c r="F19" s="29" t="s">
         <v>1456</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="G19" s="29" t="s">
         <v>1457</v>
       </c>
-      <c r="F19" s="29" t="s">
+      <c r="H19" s="29" t="s">
         <v>1458</v>
       </c>
-      <c r="G19" s="29" t="s">
-        <v>1459</v>
-      </c>
-      <c r="H19" s="29" t="s">
-        <v>1460</v>
-      </c>
       <c r="I19" s="29" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -38966,28 +38960,28 @@
         <v>558</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="E20" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="G20" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="H20" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="I20" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -38995,28 +38989,28 @@
         <v>559</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="F21" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="G21" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="H21" s="29" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="I21" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -39024,28 +39018,28 @@
         <v>560</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="G22" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="H22" s="38" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="I22" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -39053,28 +39047,28 @@
         <v>561</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="F23" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="G23" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="H23" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="I23" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -39082,28 +39076,28 @@
         <v>562</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="G24" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="I24" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -39111,43 +39105,43 @@
         <v>14</v>
       </c>
       <c r="B25" s="40" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>1456</v>
+      </c>
+      <c r="E25" s="40" t="s">
         <v>1463</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="F25" s="40" t="s">
         <v>1464</v>
       </c>
-      <c r="D25" s="40" t="s">
-        <v>1458</v>
-      </c>
-      <c r="E25" s="40" t="s">
+      <c r="G25" s="40" t="s">
         <v>1465</v>
       </c>
-      <c r="F25" s="40" t="s">
+      <c r="H25" s="40" t="s">
         <v>1466</v>
       </c>
-      <c r="G25" s="40" t="s">
+      <c r="I25" s="40" t="s">
         <v>1467</v>
-      </c>
-      <c r="H25" s="40" t="s">
-        <v>1468</v>
-      </c>
-      <c r="I25" s="40" t="s">
-        <v>1469</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="41" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="41" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="41" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
   </sheetData>
@@ -39192,7 +39186,7 @@
         <v>568</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="3" ht="36" spans="1:3">
@@ -39203,7 +39197,7 @@
         <v>570</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -39225,7 +39219,7 @@
         <v>573</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="6" ht="48" spans="1:3">
@@ -39236,7 +39230,7 @@
         <v>575</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -39256,7 +39250,7 @@
         <v>579</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="9" ht="24" spans="1:3">
@@ -39267,7 +39261,7 @@
         <v>581</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -39278,7 +39272,7 @@
         <v>583</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -39289,7 +39283,7 @@
         <v>585</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -39300,7 +39294,7 @@
         <v>587</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -39311,7 +39305,7 @@
         <v>589</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="14" ht="24" spans="1:3">
@@ -39322,7 +39316,7 @@
         <v>591</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="15" ht="96" spans="1:3">
@@ -39333,7 +39327,7 @@
         <v>593</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -39344,7 +39338,7 @@
         <v>595</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -39355,7 +39349,7 @@
         <v>597</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -39364,7 +39358,7 @@
         <v>599</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -39373,7 +39367,7 @@
         <v>601</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -39395,7 +39389,7 @@
         <v>604</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
     </row>
   </sheetData>
@@ -39682,7 +39676,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="25" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -39745,31 +39739,31 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="28" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="C5" s="29">
         <v>1</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="H5" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="I5" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -39777,22 +39771,22 @@
         <v>558</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="G6" s="38" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="H6" s="38">
         <v>4</v>
@@ -39832,17 +39826,17 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="41" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="41" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="41" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
   </sheetData>
@@ -39887,7 +39881,7 @@
         <v>568</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="3" ht="48" spans="1:3">
@@ -39898,7 +39892,7 @@
         <v>570</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -39920,7 +39914,7 @@
         <v>573</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="6" ht="48" spans="1:3">
@@ -39931,7 +39925,7 @@
         <v>575</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -39951,7 +39945,7 @@
         <v>579</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="9" ht="24" spans="1:3">
@@ -39962,7 +39956,7 @@
         <v>581</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -39973,7 +39967,7 @@
         <v>583</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -39984,7 +39978,7 @@
         <v>585</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -39995,7 +39989,7 @@
         <v>587</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -40006,7 +40000,7 @@
         <v>589</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="14" ht="36" spans="1:3">
@@ -40017,7 +40011,7 @@
         <v>591</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="15" ht="96" spans="1:3">
@@ -40028,7 +40022,7 @@
         <v>593</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -40039,7 +40033,7 @@
         <v>595</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -40050,7 +40044,7 @@
         <v>597</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -40059,7 +40053,7 @@
         <v>599</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -40068,7 +40062,7 @@
         <v>601</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -40090,7 +40084,7 @@
         <v>604</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
     </row>
   </sheetData>
@@ -40121,7 +40115,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="25" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -40156,39 +40150,39 @@
         <v>239</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="30" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="B5" s="31"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="30" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B6" s="31"/>
     </row>
@@ -40235,7 +40229,7 @@
         <v>568</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="3" ht="96" spans="1:3">
@@ -40246,7 +40240,7 @@
         <v>570</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -40257,7 +40251,7 @@
         <v>572</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="5" ht="96" spans="1:3">
@@ -40268,7 +40262,7 @@
         <v>573</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="6" ht="336" spans="1:3">
@@ -40279,7 +40273,7 @@
         <v>575</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="7" ht="24" spans="1:3">
@@ -40290,7 +40284,7 @@
         <v>577</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="8" ht="36" spans="1:3">
@@ -40299,7 +40293,7 @@
         <v>579</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -40310,7 +40304,7 @@
         <v>581</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -40321,7 +40315,7 @@
         <v>583</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -40332,7 +40326,7 @@
         <v>585</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -40343,7 +40337,7 @@
         <v>587</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -40365,7 +40359,7 @@
         <v>591</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="15" ht="60" spans="1:3">
@@ -40376,7 +40370,7 @@
         <v>593</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -40387,7 +40381,7 @@
         <v>595</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="17" ht="24" spans="1:3">
@@ -40398,7 +40392,7 @@
         <v>597</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="18" ht="24" spans="1:3">
@@ -40407,7 +40401,7 @@
         <v>599</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -40416,7 +40410,7 @@
         <v>601</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -40438,7 +40432,7 @@
         <v>604</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
   </sheetData>
@@ -40901,8 +40895,8 @@
   <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5555555555556" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -40984,102 +40978,102 @@
       <c r="A7" s="70" t="s">
         <v>641</v>
       </c>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="102">
+        <v>-654687</v>
+      </c>
+      <c r="C7" s="102" t="s">
         <v>642</v>
       </c>
-      <c r="C7" s="102" t="s">
+      <c r="D7" s="102" t="s">
         <v>643</v>
       </c>
-      <c r="D7" s="102" t="s">
+      <c r="E7" s="65" t="s">
         <v>644</v>
-      </c>
-      <c r="E7" s="65" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="69" t="s">
+        <v>645</v>
+      </c>
+      <c r="B8" s="99" t="s">
         <v>646</v>
       </c>
-      <c r="B8" s="99" t="s">
+      <c r="C8" s="99" t="s">
         <v>647</v>
       </c>
-      <c r="C8" s="99" t="s">
+      <c r="D8" s="99" t="s">
         <v>648</v>
       </c>
-      <c r="D8" s="99" t="s">
+      <c r="E8" s="99" t="s">
         <v>649</v>
-      </c>
-      <c r="E8" s="99" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="70" t="s">
+        <v>650</v>
+      </c>
+      <c r="B9" s="102" t="s">
         <v>651</v>
       </c>
-      <c r="B9" s="102" t="s">
+      <c r="C9" s="102" t="s">
         <v>652</v>
       </c>
-      <c r="C9" s="102" t="s">
+      <c r="D9" s="102" t="s">
         <v>653</v>
       </c>
-      <c r="D9" s="102" t="s">
+      <c r="E9" s="65" t="s">
         <v>654</v>
-      </c>
-      <c r="E9" s="65" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="69" t="s">
+        <v>655</v>
+      </c>
+      <c r="B10" s="99" t="s">
         <v>656</v>
       </c>
-      <c r="B10" s="99" t="s">
+      <c r="C10" s="99" t="s">
         <v>657</v>
       </c>
-      <c r="C10" s="99" t="s">
+      <c r="D10" s="99" t="s">
         <v>658</v>
       </c>
-      <c r="D10" s="99" t="s">
+      <c r="E10" s="99" t="s">
         <v>659</v>
-      </c>
-      <c r="E10" s="99" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="70" t="s">
+        <v>660</v>
+      </c>
+      <c r="B11" s="102" t="s">
         <v>661</v>
       </c>
-      <c r="B11" s="102" t="s">
+      <c r="C11" s="102" t="s">
         <v>662</v>
       </c>
-      <c r="C11" s="102" t="s">
+      <c r="D11" s="102" t="s">
         <v>663</v>
       </c>
-      <c r="D11" s="102" t="s">
+      <c r="E11" s="65" t="s">
         <v>664</v>
-      </c>
-      <c r="E11" s="65" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="69" t="s">
+        <v>665</v>
+      </c>
+      <c r="B12" s="99" t="s">
         <v>666</v>
       </c>
-      <c r="B12" s="99" t="s">
+      <c r="C12" s="99" t="s">
         <v>667</v>
       </c>
-      <c r="C12" s="99" t="s">
+      <c r="D12" s="99" t="s">
         <v>668</v>
       </c>
-      <c r="D12" s="99" t="s">
+      <c r="E12" s="99" t="s">
         <v>669</v>
-      </c>
-      <c r="E12" s="99" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -41087,26 +41081,26 @@
         <v>14</v>
       </c>
       <c r="B13" s="104" t="s">
+        <v>670</v>
+      </c>
+      <c r="C13" s="104" t="s">
         <v>671</v>
       </c>
-      <c r="C13" s="104" t="s">
+      <c r="D13" s="104" t="s">
         <v>672</v>
       </c>
-      <c r="D13" s="104" t="s">
+      <c r="E13" s="104" t="s">
         <v>673</v>
-      </c>
-      <c r="E13" s="104" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="41" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="41" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
   </sheetData>
@@ -41140,7 +41134,7 @@
         <v>566</v>
       </c>
       <c r="C1" s="105" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="2" ht="60" spans="1:3">
@@ -41151,7 +41145,7 @@
         <v>568</v>
       </c>
       <c r="C2" s="105" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="3" ht="24" spans="1:3">
@@ -41162,7 +41156,7 @@
         <v>570</v>
       </c>
       <c r="C3" s="105" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -41184,7 +41178,7 @@
         <v>573</v>
       </c>
       <c r="C5" s="105" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -41195,7 +41189,7 @@
         <v>575</v>
       </c>
       <c r="C6" s="109" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -41206,7 +41200,7 @@
         <v>577</v>
       </c>
       <c r="C7" s="105" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -41215,7 +41209,7 @@
         <v>579</v>
       </c>
       <c r="C8" s="105" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="9" ht="24" spans="1:3">
@@ -41226,7 +41220,7 @@
         <v>581</v>
       </c>
       <c r="C9" s="110" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -41237,7 +41231,7 @@
         <v>583</v>
       </c>
       <c r="C10" s="105" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -41248,7 +41242,7 @@
         <v>585</v>
       </c>
       <c r="C11" s="105" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -41259,7 +41253,7 @@
         <v>587</v>
       </c>
       <c r="C12" s="105" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -41281,7 +41275,7 @@
         <v>591</v>
       </c>
       <c r="C14" s="107" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="15" ht="24" spans="1:3">
@@ -41292,7 +41286,7 @@
         <v>593</v>
       </c>
       <c r="C15" s="105" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="16" ht="24" spans="1:3">
@@ -41303,7 +41297,7 @@
         <v>595</v>
       </c>
       <c r="C16" s="177" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -41314,7 +41308,7 @@
         <v>597</v>
       </c>
       <c r="C17" s="105" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -41323,7 +41317,7 @@
         <v>599</v>
       </c>
       <c r="C18" s="110" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -41332,7 +41326,7 @@
         <v>601</v>
       </c>
       <c r="C19" s="105" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -41354,7 +41348,7 @@
         <v>604</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
   </sheetData>
@@ -41378,14 +41372,14 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5555555555556" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="25" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -41402,22 +41396,22 @@
     <row r="4" spans="1:5">
       <c r="A4" s="77"/>
       <c r="B4" s="78" t="s">
+        <v>694</v>
+      </c>
+      <c r="C4" s="78" t="s">
         <v>695</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="D4" s="78" t="s">
         <v>696</v>
       </c>
-      <c r="D4" s="78" t="s">
+      <c r="E4" s="78" t="s">
         <v>697</v>
-      </c>
-      <c r="E4" s="78" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="77"/>
       <c r="B5" s="78" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C5" s="78"/>
       <c r="D5" s="78"/>
@@ -41428,13 +41422,13 @@
         <v>626</v>
       </c>
       <c r="B6" s="65" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C6" s="65" t="s">
         <v>627</v>
       </c>
       <c r="D6" s="65" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E6" s="65">
         <v>583</v>
@@ -41445,16 +41439,16 @@
         <v>631</v>
       </c>
       <c r="B7" s="99" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C7" s="99" t="s">
         <v>632</v>
       </c>
       <c r="D7" s="99" t="s">
+        <v>702</v>
+      </c>
+      <c r="E7" s="99" t="s">
         <v>703</v>
-      </c>
-      <c r="E7" s="99" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -41462,13 +41456,13 @@
         <v>636</v>
       </c>
       <c r="B8" s="65" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C8" s="65" t="s">
         <v>637</v>
       </c>
       <c r="D8" s="65" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E8" s="65">
         <v>173</v>
@@ -41478,14 +41472,14 @@
       <c r="A9" s="69" t="s">
         <v>641</v>
       </c>
-      <c r="B9" s="99" t="s">
-        <v>707</v>
-      </c>
-      <c r="C9" s="99" t="s">
-        <v>642</v>
+      <c r="B9" s="99">
+        <v>-4310</v>
+      </c>
+      <c r="C9" s="99">
+        <v>-654687</v>
       </c>
       <c r="D9" s="99" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E9" s="99">
         <v>-2</v>
@@ -41493,16 +41487,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="70" t="s">
+        <v>645</v>
+      </c>
+      <c r="B10" s="65" t="s">
+        <v>707</v>
+      </c>
+      <c r="C10" s="65" t="s">
         <v>646</v>
       </c>
-      <c r="B10" s="65" t="s">
-        <v>709</v>
-      </c>
-      <c r="C10" s="65" t="s">
-        <v>647</v>
-      </c>
       <c r="D10" s="65" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E10" s="65">
         <v>356</v>
@@ -41510,16 +41504,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="69" t="s">
+        <v>650</v>
+      </c>
+      <c r="B11" s="99" t="s">
+        <v>709</v>
+      </c>
+      <c r="C11" s="99" t="s">
         <v>651</v>
       </c>
-      <c r="B11" s="99" t="s">
-        <v>711</v>
-      </c>
-      <c r="C11" s="99" t="s">
-        <v>652</v>
-      </c>
       <c r="D11" s="99" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E11" s="99">
         <v>351</v>
@@ -41527,16 +41521,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="70" t="s">
+        <v>655</v>
+      </c>
+      <c r="B12" s="65" t="s">
+        <v>710</v>
+      </c>
+      <c r="C12" s="65" t="s">
         <v>656</v>
       </c>
-      <c r="B12" s="65" t="s">
-        <v>712</v>
-      </c>
-      <c r="C12" s="65" t="s">
-        <v>657</v>
-      </c>
       <c r="D12" s="65" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E12" s="65">
         <v>345</v>
@@ -41544,16 +41538,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="69" t="s">
+        <v>660</v>
+      </c>
+      <c r="B13" s="99" t="s">
+        <v>711</v>
+      </c>
+      <c r="C13" s="99" t="s">
         <v>661</v>
       </c>
-      <c r="B13" s="99" t="s">
-        <v>713</v>
-      </c>
-      <c r="C13" s="99" t="s">
-        <v>662</v>
-      </c>
       <c r="D13" s="99" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E13" s="99">
         <v>442</v>
@@ -41561,16 +41555,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="70" t="s">
+        <v>665</v>
+      </c>
+      <c r="B14" s="65" t="s">
+        <v>713</v>
+      </c>
+      <c r="C14" s="65" t="s">
         <v>666</v>
       </c>
-      <c r="B14" s="65" t="s">
-        <v>715</v>
-      </c>
-      <c r="C14" s="65" t="s">
-        <v>667</v>
-      </c>
       <c r="D14" s="65" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E14" s="65">
         <v>612</v>
@@ -41581,26 +41575,26 @@
         <v>14</v>
       </c>
       <c r="B15" s="104" t="s">
+        <v>714</v>
+      </c>
+      <c r="C15" s="104" t="s">
+        <v>670</v>
+      </c>
+      <c r="D15" s="104" t="s">
+        <v>715</v>
+      </c>
+      <c r="E15" s="104" t="s">
         <v>716</v>
-      </c>
-      <c r="C15" s="104" t="s">
-        <v>671</v>
-      </c>
-      <c r="D15" s="104" t="s">
-        <v>717</v>
-      </c>
-      <c r="E15" s="104" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="41" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="41" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
   </sheetData>
@@ -41641,7 +41635,7 @@
         <v>566</v>
       </c>
       <c r="C1" s="105" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="2" ht="60" spans="1:3">
@@ -41652,7 +41646,7 @@
         <v>568</v>
       </c>
       <c r="C2" s="105" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="3" ht="24.6" spans="1:3">
@@ -41663,7 +41657,7 @@
         <v>570</v>
       </c>
       <c r="C3" s="105" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -41674,7 +41668,7 @@
         <v>572</v>
       </c>
       <c r="C4" s="105" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="5" ht="25.2" spans="1:3">
@@ -41685,7 +41679,7 @@
         <v>573</v>
       </c>
       <c r="C5" s="105" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -41696,7 +41690,7 @@
         <v>575</v>
       </c>
       <c r="C6" s="109" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -41707,7 +41701,7 @@
         <v>577</v>
       </c>
       <c r="C7" s="105" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -41716,7 +41710,7 @@
         <v>579</v>
       </c>
       <c r="C8" s="105" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="9" ht="24" spans="1:3">
@@ -41727,7 +41721,7 @@
         <v>581</v>
       </c>
       <c r="C9" s="110" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -41738,7 +41732,7 @@
         <v>583</v>
       </c>
       <c r="C10" s="105" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -41749,7 +41743,7 @@
         <v>585</v>
       </c>
       <c r="C11" s="105" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -41760,7 +41754,7 @@
         <v>587</v>
       </c>
       <c r="C12" s="105" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -41782,7 +41776,7 @@
         <v>591</v>
       </c>
       <c r="C14" s="107" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="15" ht="24" spans="1:3">
@@ -41793,7 +41787,7 @@
         <v>593</v>
       </c>
       <c r="C15" s="105" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="16" ht="24" spans="1:3">
@@ -41804,7 +41798,7 @@
         <v>595</v>
       </c>
       <c r="C16" s="177" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -41815,7 +41809,7 @@
         <v>597</v>
       </c>
       <c r="C17" s="105" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -41824,7 +41818,7 @@
         <v>599</v>
       </c>
       <c r="C18" s="110" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -41833,7 +41827,7 @@
         <v>601</v>
       </c>
       <c r="C19" s="105" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -41855,7 +41849,7 @@
         <v>604</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
   </sheetData>
